--- a/jpcore-r4/feature/swg1-CodeSystem修正/StructureDefinition-jp-medicationadministration-injection.xlsx
+++ b/jpcore-r4/feature/swg1-CodeSystem修正/StructureDefinition-jp-medicationadministration-injection.xlsx
@@ -1210,7 +1210,7 @@
 ユースケースでBodySiteリソースの属性が必要な場合（たとえば、個別に識別して追跡するため）、標準の拡張機能[bodySite]（extension-bodysite.html）を使用する。要約コード、または場所の非常に正確な定義への参照、あるいはその両方である可能性がある。</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationBodySiteJAMIExternal_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationBodySiteJAMIExternal_VS</t>
   </si>
   <si>
     <t>.approachSiteCode</t>
@@ -1316,7 +1316,7 @@
 患者への、または患者への治療薬の投与経路または生理学的経路を指定するコード。たとえば、局所、静脈内など。</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/CodeSystem/JP_MedicationRouteHL70162_VS</t>
+    <t>http://jpfhir.jp/fhir/core/CodeSystem/JP_MedicationRouteHL70162_VS</t>
   </si>
   <si>
     <t>.routeCode</t>
@@ -1415,7 +1415,7 @@
     <t>他のコードシステムへの変換や代替のコードシステムを使ってエンコードしてもよい。</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationMethodJAMIBasicUsage_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationMethodJAMIBasicUsage_VS</t>
   </si>
   <si>
     <t>MedicationAdministration.dosage.method.coding.id</t>
@@ -1551,7 +1551,7 @@
     <t>投与⽅法に対応するJAMI 用法コード表基本用法2桁コードを識別するURI。２桁コードurn:oid:1.2.392.200250.2.2.20.40</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationMethodJAMIDetailUsage_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationMethodJAMIDetailUsage_VS</t>
   </si>
   <si>
     <t>urn:oid:1.2.392.200250.2.2.20.40</t>
@@ -2014,7 +2014,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="79.59375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="73.4765625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="69.23046875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>

--- a/jpcore-r4/feature/swg1-CodeSystem修正/StructureDefinition-jp-medicationadministration-injection.xlsx
+++ b/jpcore-r4/feature/swg1-CodeSystem修正/StructureDefinition-jp-medicationadministration-injection.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3203" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3854" uniqueCount="585">
   <si>
     <t>Property</t>
   </si>
@@ -75,7 +75,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>Japan</t>
+    <t>JP</t>
   </si>
   <si>
     <t>Description</t>
@@ -543,23 +543,269 @@
 </t>
   </si>
   <si>
-    <t>External identifier 外部識別子</t>
-  </si>
-  <si>
-    <t>Identifiers associated with this Medication Administration that are defined by business processes and/or used to refer to it when a direct URL reference to the resource itself is not appropriate. They are business identifiers assigned to this resource by the performer or other systems and remain constant as the resource is updated and propagates from server to server.
-ビジネスプロセスによって定義され、リソース自体への直接URL参照が適切でない場合にそれを参照するために使用される、この投薬管理に関連付けられた識別子。これらは、実行者または他のシステムによってこのリソースに割り当てられたビジネスIDであり、リソースが更新されてサーバからサーバに伝播される間、一定のままである。</t>
+    <t>外部から参照されるID</t>
+  </si>
+  <si>
+    <t>このインスタンスが外部から参照されるために使われるIDである。処方箋全体としてのIDとしては使用しない。
+処方箋内で同一の用法をまとめて表記されるRp番号はこのIdentifier elementの別スライスで表現する。それ以外に任意のIDを付与してもよい。
+このIDは業務手順によって定められた処方オーダに対して、直接的なURL参照が適切でない場合も含めて関連付けるために使われる。この業務手順のIDは実施者によって割り当てられたものであり、リソースが更新されたりサーバからサーバに転送されたとしても固定のものとして存続する。</t>
+  </si>
+  <si>
+    <t>これは業務IDであって、リソースに対するIDではない。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:system}
+</t>
+  </si>
+  <si>
+    <t>Event.identifier</t>
+  </si>
+  <si>
+    <t>.id</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>rpNumber</t>
+  </si>
+  <si>
+    <t>処方箋内部の剤グループとしてのRp番号</t>
+  </si>
+  <si>
+    <t>処方箋内で同一用法の薬剤を慣用的にまとめて、Rpに番号をつけて剤グループとして一括指定されることがある。このスライスでは剤グループに対して割り振られたRp番号を記録する。</t>
+  </si>
+  <si>
+    <t>剤グループに複数の薬剤が含まれる場合、このグループ内の薬剤には同じRp番号が割り振られる。</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.identifier.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.identifier.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.identifier.use</t>
+  </si>
+  <si>
+    <t>usual | official | temp | secondary | old (If known)</t>
+  </si>
+  <si>
+    <t>The purpose of this identifier.</t>
+  </si>
+  <si>
+    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for this identifier, if known .</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
+  </si>
+  <si>
+    <t>Identifier.use</t>
+  </si>
+  <si>
+    <t>Role.code or implied by context</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.identifier.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Description of identifier</t>
+  </si>
+  <si>
+    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+  </si>
+  <si>
+    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+  </si>
+  <si>
+    <t>Identifier.type</t>
+  </si>
+  <si>
+    <t>CX.5</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.identifier.system</t>
+  </si>
+  <si>
+    <t>Rp番号(剤グループ番号)についてのsystem値</t>
+  </si>
+  <si>
+    <t>ここで付番されたIDがRp番号であることを明示するためにOIDとして定義された。urn:oid:1.2.392.100495.20.3.81で固定される。</t>
+  </si>
+  <si>
+    <t>Identifier.system is always case sensitive.</t>
+  </si>
+  <si>
+    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+  </si>
+  <si>
+    <t>urn:oid:1.2.392.100495.20.3.81</t>
+  </si>
+  <si>
+    <t>http://www.acme.com/identifiers/patient</t>
+  </si>
+  <si>
+    <t>Identifier.system</t>
+  </si>
+  <si>
+    <t>II.root or Role.id.root</t>
+  </si>
+  <si>
+    <t>CX.4 / EI-2-4</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.identifier.value</t>
+  </si>
+  <si>
+    <t>Rp番号(剤グループ番号)</t>
+  </si>
+  <si>
+    <t>Rp番号(剤グループ番号)。"1"など。</t>
+  </si>
+  <si>
+    <t>value は string型であり、数値はゼロサプレス、つまり、'01'でなく'1'と指定すること。</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>Identifier.value</t>
+  </si>
+  <si>
+    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
+  </si>
+  <si>
+    <t>CX.1 / EI.1</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.identifier.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Time period when id is/was valid for use</t>
+  </si>
+  <si>
+    <t>Time period during which identifier is/was valid for use.</t>
+  </si>
+  <si>
+    <t>Identifier.period</t>
+  </si>
+  <si>
+    <t>Role.effectiveTime or implied by context</t>
+  </si>
+  <si>
+    <t>CX.7 + CX.8</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.identifier.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
+  </si>
+  <si>
+    <t>Organization that issued id (may be just text)</t>
+  </si>
+  <si>
+    <t>Organization that issued/manages the identifier.</t>
+  </si>
+  <si>
+    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
+  </si>
+  <si>
+    <t>Identifier.assigner</t>
+  </si>
+  <si>
+    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
+  </si>
+  <si>
+    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
+  </si>
+  <si>
+    <t>requestIdentifier</t>
+  </si>
+  <si>
+    <t>処方オーダに対するID(MedicationRequestからの継承)</t>
+  </si>
+  <si>
+    <t>薬剤をオーダする単位としての処方箋に対するID。原則として投薬実施の基となったMedicationRequestのIDを設定する。</t>
   </si>
   <si>
     <t>This is a business identifier, not a resource identifier.</t>
   </si>
   <si>
-    <t>Event.identifier</t>
-  </si>
-  <si>
-    <t>.id</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
+    <t>The namespace for the identifier value</t>
+  </si>
+  <si>
+    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/core/IdSystem/resourceInstance-identifier</t>
+  </si>
+  <si>
+    <t>The value that is unique</t>
+  </si>
+  <si>
+    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
   </si>
   <si>
     <t>MedicationAdministration.instantiates</t>
@@ -612,9 +858,6 @@
     <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
   </si>
   <si>
-    <t>required</t>
-  </si>
-  <si>
     <t>患者への投与状況</t>
   </si>
   <si>
@@ -634,10 +877,6 @@
   </si>
   <si>
     <t>MedicationAdministration.statusReason</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
   </si>
   <si>
     <t>Reason administration not performed　実施されていない理由</t>
@@ -873,32 +1112,7 @@
     <t>MedicationAdministration.performer.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>MedicationAdministration.performer.extension</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>MedicationAdministration.performer.modifierExtension</t>
@@ -1225,9 +1439,6 @@
     <t>MedicationAdministration.dosage.site.extension</t>
   </si>
   <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
     <t>bodySite</t>
   </si>
   <si>
@@ -1394,10 +1605,6 @@
   </si>
   <si>
     <t>MedicationAdministration.dosage.method.coding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:system}
-</t>
   </si>
   <si>
     <t>unitDigit1</t>
@@ -1981,7 +2188,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN88"/>
+  <dimension ref="A1:AN106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2013,7 +2220,7 @@
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="79.59375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="98.375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="69.23046875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
@@ -3754,7 +3961,7 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>79</v>
@@ -3816,16 +4023,14 @@
         <v>77</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="AB16" s="2"/>
       <c r="AC16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE16" t="s" s="2">
         <v>166</v>
@@ -3843,13 +4048,13 @@
         <v>98</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>77</v>
@@ -3860,18 +4065,20 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="B17" s="2"/>
+        <v>166</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>175</v>
+      </c>
       <c r="C17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>77</v>
@@ -3880,18 +4087,20 @@
         <v>77</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>100</v>
+        <v>167</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="M17" s="2"/>
+        <v>177</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>178</v>
+      </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>77</v>
@@ -3940,7 +4149,7 @@
         <v>77</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>78</v>
@@ -3955,13 +4164,13 @@
         <v>98</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>77</v>
+        <v>174</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>77</v>
@@ -3983,7 +4192,7 @@
         <v>78</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>77</v>
@@ -3992,7 +4201,7 @@
         <v>77</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J18" t="s" s="2">
         <v>180</v>
@@ -4052,22 +4261,22 @@
         <v>77</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>183</v>
+        <v>77</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>184</v>
@@ -4088,26 +4297,26 @@
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>77</v>
+        <v>160</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="K19" t="s" s="2">
         <v>186</v>
@@ -4116,7 +4325,7 @@
         <v>187</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -4142,55 +4351,55 @@
         <v>77</v>
       </c>
       <c r="W19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AE19" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="X19" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="Y19" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="Z19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>185</v>
-      </c>
       <c r="AF19" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>192</v>
+        <v>77</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>194</v>
+        <v>77</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>195</v>
+        <v>77</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>77</v>
@@ -4198,7 +4407,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4209,30 +4418,32 @@
         <v>78</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>197</v>
+        <v>106</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="N20" s="2"/>
+        <v>193</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>194</v>
+      </c>
       <c r="O20" t="s" s="2">
         <v>77</v>
       </c>
@@ -4256,13 +4467,13 @@
         <v>77</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>77</v>
@@ -4280,13 +4491,13 @@
         <v>77</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>77</v>
@@ -4295,16 +4506,16 @@
         <v>98</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>204</v>
+        <v>77</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>206</v>
+        <v>129</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>77</v>
@@ -4312,7 +4523,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4332,19 +4543,23 @@
         <v>77</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
+        <v>203</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>205</v>
+      </c>
       <c r="O21" t="s" s="2">
         <v>77</v>
       </c>
@@ -4368,13 +4583,13 @@
         <v>77</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>110</v>
+        <v>206</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>77</v>
@@ -4392,7 +4607,7 @@
         <v>77</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>78</v>
@@ -4410,13 +4625,13 @@
         <v>77</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>77</v>
+        <v>210</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>77</v>
@@ -4424,7 +4639,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4447,30 +4662,32 @@
         <v>87</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="K22" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="K22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L22" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
-        <v>77</v>
+        <v>216</v>
       </c>
       <c r="R22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>77</v>
+        <v>217</v>
       </c>
       <c r="T22" t="s" s="2">
         <v>77</v>
@@ -4494,20 +4711,22 @@
         <v>77</v>
       </c>
       <c r="AA22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE22" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="AB22" s="2"/>
-      <c r="AC22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>213</v>
-      </c>
       <c r="AF22" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>86</v>
@@ -4519,16 +4738,16 @@
         <v>98</v>
       </c>
       <c r="AJ22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK22" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AL22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM22" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="AK22" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="AL22" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>77</v>
@@ -4536,11 +4755,9 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="B23" t="s" s="2">
-        <v>224</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
         <v>77</v>
       </c>
@@ -4561,16 +4778,16 @@
         <v>87</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>225</v>
+        <v>180</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4584,7 +4801,7 @@
         <v>77</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>77</v>
+        <v>225</v>
       </c>
       <c r="T23" t="s" s="2">
         <v>77</v>
@@ -4620,10 +4837,10 @@
         <v>77</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>86</v>
@@ -4635,16 +4852,16 @@
         <v>98</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>220</v>
+        <v>77</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>222</v>
+        <v>77</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>77</v>
@@ -4652,7 +4869,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4660,7 +4877,7 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>86</v>
@@ -4675,17 +4892,15 @@
         <v>87</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>230</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>77</v>
@@ -4734,10 +4949,10 @@
         <v>77</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>86</v>
@@ -4749,16 +4964,16 @@
         <v>98</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>231</v>
+        <v>77</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>233</v>
+        <v>77</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>77</v>
@@ -4766,7 +4981,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4786,19 +5001,19 @@
         <v>77</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -4848,7 +5063,7 @@
         <v>77</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>78</v>
@@ -4863,16 +5078,16 @@
         <v>98</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>239</v>
+        <v>77</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>241</v>
+        <v>77</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>77</v>
@@ -4880,9 +5095,11 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="B26" s="2"/>
+        <v>166</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>244</v>
+      </c>
       <c r="C26" t="s" s="2">
         <v>77</v>
       </c>
@@ -4903,7 +5120,7 @@
         <v>77</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>244</v>
+        <v>167</v>
       </c>
       <c r="K26" t="s" s="2">
         <v>245</v>
@@ -4912,7 +5129,7 @@
         <v>246</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4962,7 +5179,7 @@
         <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>243</v>
+        <v>166</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>78</v>
@@ -4977,13 +5194,13 @@
         <v>98</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>77</v>
+        <v>172</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>247</v>
+        <v>173</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>241</v>
+        <v>174</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>77</v>
@@ -4994,7 +5211,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>248</v>
+        <v>179</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5002,7 +5219,7 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>86</v>
@@ -5014,20 +5231,18 @@
         <v>77</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>249</v>
+        <v>180</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>250</v>
+        <v>181</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>252</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>77</v>
@@ -5076,10 +5291,10 @@
         <v>77</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>248</v>
+        <v>183</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>86</v>
@@ -5088,19 +5303,19 @@
         <v>77</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>253</v>
+        <v>77</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>254</v>
+        <v>184</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>255</v>
+        <v>77</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>256</v>
+        <v>77</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>77</v>
@@ -5108,11 +5323,11 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>257</v>
+        <v>185</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>77</v>
+        <v>160</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -5128,18 +5343,20 @@
         <v>77</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>258</v>
+        <v>131</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>259</v>
+        <v>186</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="M28" s="2"/>
+        <v>187</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>77</v>
@@ -5176,19 +5393,19 @@
         <v>77</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>77</v>
+        <v>188</v>
       </c>
       <c r="AC28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>257</v>
+        <v>189</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>78</v>
@@ -5200,19 +5417,19 @@
         <v>77</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>261</v>
+        <v>77</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>262</v>
+        <v>184</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>263</v>
+        <v>77</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>264</v>
+        <v>77</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>77</v>
@@ -5220,7 +5437,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>265</v>
+        <v>190</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5237,22 +5454,26 @@
         <v>77</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>266</v>
+        <v>106</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>267</v>
+        <v>191</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
+        <v>192</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>194</v>
+      </c>
       <c r="O29" t="s" s="2">
         <v>77</v>
       </c>
@@ -5276,13 +5497,13 @@
         <v>77</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>77</v>
+        <v>195</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>77</v>
+        <v>196</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>77</v>
+        <v>197</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>77</v>
@@ -5300,7 +5521,7 @@
         <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>269</v>
+        <v>198</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>78</v>
@@ -5312,19 +5533,19 @@
         <v>77</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>270</v>
+        <v>199</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>77</v>
@@ -5332,18 +5553,18 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>271</v>
+        <v>200</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>77</v>
@@ -5352,21 +5573,23 @@
         <v>77</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>131</v>
+        <v>201</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>272</v>
+        <v>202</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>273</v>
+        <v>203</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>204</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>205</v>
+      </c>
       <c r="O30" t="s" s="2">
         <v>77</v>
       </c>
@@ -5390,13 +5613,13 @@
         <v>77</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>77</v>
+        <v>206</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>77</v>
+        <v>207</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>77</v>
+        <v>208</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>77</v>
@@ -5414,31 +5637,31 @@
         <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>274</v>
+        <v>209</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>270</v>
+        <v>199</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>77</v>
+        <v>210</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>77</v>
@@ -5446,55 +5669,55 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>275</v>
+        <v>211</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>276</v>
+        <v>77</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>277</v>
+        <v>248</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>278</v>
+        <v>249</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>163</v>
+        <v>214</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>164</v>
+        <v>215</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
-        <v>77</v>
+        <v>250</v>
       </c>
       <c r="R31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>77</v>
+        <v>217</v>
       </c>
       <c r="T31" t="s" s="2">
         <v>77</v>
@@ -5530,31 +5753,31 @@
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>279</v>
+        <v>218</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>129</v>
+        <v>219</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>77</v>
+        <v>220</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>77</v>
@@ -5562,7 +5785,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>280</v>
+        <v>221</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5570,7 +5793,7 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>86</v>
@@ -5582,18 +5805,20 @@
         <v>77</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>281</v>
+        <v>251</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="M32" s="2"/>
+        <v>252</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>253</v>
+      </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>77</v>
@@ -5606,7 +5831,7 @@
         <v>77</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>77</v>
+        <v>225</v>
       </c>
       <c r="T32" t="s" s="2">
         <v>77</v>
@@ -5618,13 +5843,13 @@
         <v>77</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>201</v>
+        <v>77</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>283</v>
+        <v>77</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>284</v>
+        <v>77</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>77</v>
@@ -5642,7 +5867,7 @@
         <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>280</v>
+        <v>226</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>78</v>
@@ -5657,16 +5882,16 @@
         <v>98</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>285</v>
+        <v>77</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>286</v>
+        <v>227</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>77</v>
+        <v>228</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>77</v>
@@ -5674,7 +5899,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>287</v>
+        <v>229</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5682,7 +5907,7 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>86</v>
@@ -5697,13 +5922,13 @@
         <v>87</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>288</v>
+        <v>230</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>289</v>
+        <v>231</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>290</v>
+        <v>232</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5754,10 +5979,10 @@
         <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>287</v>
+        <v>233</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>86</v>
@@ -5769,16 +5994,16 @@
         <v>98</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>291</v>
+        <v>77</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>292</v>
+        <v>234</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>77</v>
+        <v>235</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>77</v>
@@ -5786,7 +6011,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>293</v>
+        <v>236</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5797,7 +6022,7 @@
         <v>78</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>77</v>
@@ -5806,18 +6031,20 @@
         <v>77</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>197</v>
+        <v>237</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>294</v>
+        <v>238</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="M34" s="2"/>
+        <v>239</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>240</v>
+      </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>77</v>
@@ -5842,13 +6069,13 @@
         <v>77</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>201</v>
+        <v>77</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>296</v>
+        <v>77</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>297</v>
+        <v>77</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>77</v>
@@ -5866,13 +6093,13 @@
         <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>293</v>
+        <v>241</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>77</v>
@@ -5881,16 +6108,16 @@
         <v>98</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>298</v>
+        <v>77</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>299</v>
+        <v>242</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>300</v>
+        <v>243</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>77</v>
@@ -5898,7 +6125,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>301</v>
+        <v>254</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5918,20 +6145,18 @@
         <v>77</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>302</v>
+        <v>100</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>303</v>
+        <v>255</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>305</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>77</v>
@@ -5980,7 +6205,7 @@
         <v>77</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>301</v>
+        <v>254</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>78</v>
@@ -5995,24 +6220,24 @@
         <v>98</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>306</v>
+        <v>257</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>307</v>
+        <v>258</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>308</v>
+        <v>77</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>309</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>310</v>
+        <v>259</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6023,7 +6248,7 @@
         <v>78</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>77</v>
@@ -6032,23 +6257,19 @@
         <v>77</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>311</v>
+        <v>260</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>312</v>
+        <v>261</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>315</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>77</v>
       </c>
@@ -6096,13 +6317,13 @@
         <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>310</v>
+        <v>259</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>77</v>
@@ -6111,16 +6332,16 @@
         <v>98</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>316</v>
+        <v>263</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>317</v>
+        <v>264</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>318</v>
+        <v>77</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>77</v>
@@ -6128,7 +6349,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>319</v>
+        <v>265</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6136,31 +6357,31 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>320</v>
+        <v>106</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>321</v>
+        <v>266</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>322</v>
+        <v>267</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>230</v>
+        <v>268</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -6186,13 +6407,13 @@
         <v>77</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>77</v>
+        <v>195</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>77</v>
+        <v>269</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>77</v>
+        <v>270</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>77</v>
@@ -6210,13 +6431,13 @@
         <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>319</v>
+        <v>265</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>77</v>
@@ -6225,16 +6446,16 @@
         <v>98</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>77</v>
+        <v>271</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>323</v>
+        <v>272</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>77</v>
+        <v>273</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>324</v>
+        <v>274</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>77</v>
@@ -6242,7 +6463,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>325</v>
+        <v>275</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6265,16 +6486,16 @@
         <v>77</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>326</v>
+        <v>201</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>327</v>
+        <v>276</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>328</v>
+        <v>277</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>329</v>
+        <v>278</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -6300,13 +6521,13 @@
         <v>77</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>77</v>
+        <v>279</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>77</v>
+        <v>280</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>77</v>
+        <v>281</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>77</v>
@@ -6324,7 +6545,7 @@
         <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>325</v>
+        <v>275</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>78</v>
@@ -6339,16 +6560,16 @@
         <v>98</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>330</v>
+        <v>282</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>331</v>
+        <v>283</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>77</v>
+        <v>284</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>77</v>
@@ -6356,7 +6577,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>332</v>
+        <v>285</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6379,13 +6600,13 @@
         <v>77</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>258</v>
+        <v>201</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>333</v>
+        <v>286</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>334</v>
+        <v>287</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -6412,13 +6633,13 @@
         <v>77</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>77</v>
+        <v>288</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>77</v>
+        <v>289</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>77</v>
@@ -6436,7 +6657,7 @@
         <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>332</v>
+        <v>285</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>78</v>
@@ -6448,13 +6669,13 @@
         <v>77</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>335</v>
+        <v>98</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>336</v>
+        <v>290</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>77</v>
@@ -6468,7 +6689,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>337</v>
+        <v>291</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6476,7 +6697,7 @@
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F40" t="s" s="2">
         <v>86</v>
@@ -6488,18 +6709,20 @@
         <v>77</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>266</v>
+        <v>292</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>267</v>
+        <v>293</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="M40" s="2"/>
+        <v>294</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>295</v>
+      </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>77</v>
@@ -6536,22 +6759,20 @@
         <v>77</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB40" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="AB40" s="2"/>
       <c r="AC40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>77</v>
+        <v>297</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>269</v>
+        <v>291</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>86</v>
@@ -6560,19 +6781,19 @@
         <v>77</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>77</v>
+        <v>298</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>270</v>
+        <v>299</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>77</v>
+        <v>300</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>77</v>
+        <v>301</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>77</v>
@@ -6580,18 +6801,20 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="B41" s="2"/>
+        <v>291</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>302</v>
+      </c>
       <c r="C41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>77</v>
@@ -6600,18 +6823,20 @@
         <v>77</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>131</v>
+        <v>303</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>132</v>
+        <v>293</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="M41" s="2"/>
+        <v>294</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>295</v>
+      </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>77</v>
@@ -6648,41 +6873,43 @@
         <v>77</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AB41" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AC41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>274</v>
+        <v>291</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>77</v>
+        <v>298</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>77</v>
+        <v>299</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>77</v>
+        <v>300</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>77</v>
+        <v>301</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>77</v>
@@ -6690,20 +6917,18 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="B42" t="s" s="2">
-        <v>339</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>77</v>
@@ -6712,18 +6937,20 @@
         <v>77</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>340</v>
+        <v>305</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>341</v>
+        <v>306</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="M42" s="2"/>
+        <v>307</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>308</v>
+      </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>77</v>
@@ -6772,31 +6999,31 @@
         <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>274</v>
+        <v>304</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>77</v>
+        <v>309</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>77</v>
+        <v>310</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>77</v>
+        <v>311</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>77</v>
+        <v>312</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>77</v>
@@ -6804,11 +7031,9 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="B43" t="s" s="2">
-        <v>343</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
         <v>77</v>
       </c>
@@ -6817,7 +7042,7 @@
         <v>78</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>77</v>
@@ -6829,15 +7054,17 @@
         <v>77</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>344</v>
+        <v>314</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>345</v>
+        <v>315</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="M43" s="2"/>
+        <v>316</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>308</v>
+      </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>77</v>
@@ -6886,31 +7113,31 @@
         <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>274</v>
+        <v>313</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>77</v>
+        <v>317</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>77</v>
+        <v>318</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>77</v>
+        <v>319</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>77</v>
+        <v>320</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>77</v>
@@ -6918,11 +7145,9 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="B44" t="s" s="2">
-        <v>347</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
         <v>77</v>
       </c>
@@ -6943,15 +7168,17 @@
         <v>77</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>348</v>
+        <v>322</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>349</v>
+        <v>323</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="M44" s="2"/>
+        <v>324</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>308</v>
+      </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>77</v>
@@ -7000,7 +7227,7 @@
         <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>274</v>
+        <v>321</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>78</v>
@@ -7009,19 +7236,19 @@
         <v>79</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>77</v>
+        <v>325</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>77</v>
+        <v>319</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>77</v>
@@ -7032,20 +7259,18 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="B45" t="s" s="2">
-        <v>351</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>77</v>
@@ -7054,18 +7279,20 @@
         <v>77</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>352</v>
+        <v>327</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>353</v>
+        <v>328</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="M45" s="2"/>
+        <v>329</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>330</v>
+      </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>77</v>
@@ -7114,31 +7341,31 @@
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>274</v>
+        <v>326</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>77</v>
+        <v>331</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>77</v>
+        <v>332</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>77</v>
+        <v>333</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>77</v>
+        <v>334</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>77</v>
@@ -7146,11 +7373,9 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="B46" t="s" s="2">
-        <v>355</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
         <v>77</v>
       </c>
@@ -7168,16 +7393,16 @@
         <v>77</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>356</v>
+        <v>336</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>357</v>
+        <v>337</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>358</v>
+        <v>338</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -7228,7 +7453,7 @@
         <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>274</v>
+        <v>335</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
@@ -7237,22 +7462,22 @@
         <v>79</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>77</v>
+        <v>339</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>77</v>
+        <v>340</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>77</v>
+        <v>341</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>77</v>
+        <v>342</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>77</v>
@@ -7260,43 +7485,39 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>359</v>
+        <v>343</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>276</v>
+        <v>77</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>131</v>
+        <v>180</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>277</v>
+        <v>181</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>164</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>77</v>
       </c>
@@ -7344,25 +7565,25 @@
         <v>77</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>279</v>
+        <v>183</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>129</v>
+        <v>184</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>77</v>
@@ -7376,18 +7597,18 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>360</v>
+        <v>344</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>77</v>
+        <v>160</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>77</v>
@@ -7399,15 +7620,17 @@
         <v>77</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>266</v>
+        <v>131</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>361</v>
+        <v>186</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="M48" s="2"/>
+        <v>187</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>77</v>
@@ -7456,25 +7679,25 @@
         <v>77</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>360</v>
+        <v>189</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>363</v>
+        <v>184</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>77</v>
@@ -7488,41 +7711,43 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>364</v>
+        <v>345</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>77</v>
+        <v>346</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>197</v>
+        <v>131</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>365</v>
+        <v>347</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>366</v>
+        <v>348</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>163</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>164</v>
+      </c>
       <c r="O49" t="s" s="2">
         <v>77</v>
       </c>
@@ -7546,11 +7771,13 @@
         <v>77</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="X49" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Y49" t="s" s="2">
-        <v>368</v>
+        <v>77</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>77</v>
@@ -7568,31 +7795,31 @@
         <v>77</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>369</v>
+        <v>129</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>370</v>
+        <v>77</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>77</v>
@@ -7600,7 +7827,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>371</v>
+        <v>350</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7623,13 +7850,13 @@
         <v>77</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>266</v>
+        <v>201</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>267</v>
+        <v>351</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>268</v>
+        <v>352</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7656,13 +7883,13 @@
         <v>77</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>77</v>
+        <v>279</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>77</v>
+        <v>353</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>77</v>
+        <v>354</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>77</v>
@@ -7680,7 +7907,7 @@
         <v>77</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>269</v>
+        <v>350</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>78</v>
@@ -7692,13 +7919,13 @@
         <v>77</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>77</v>
+        <v>355</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>270</v>
+        <v>356</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>77</v>
@@ -7712,18 +7939,18 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>372</v>
+        <v>357</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>77</v>
@@ -7732,20 +7959,18 @@
         <v>77</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>131</v>
+        <v>358</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>272</v>
+        <v>359</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>163</v>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="M51" s="2"/>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>77</v>
@@ -7782,37 +8007,37 @@
         <v>77</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>373</v>
+        <v>77</v>
       </c>
       <c r="AC51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>274</v>
+        <v>357</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>77</v>
+        <v>361</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>270</v>
+        <v>362</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>77</v>
@@ -7826,11 +8051,9 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="B52" t="s" s="2">
-        <v>374</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
         <v>77</v>
       </c>
@@ -7851,13 +8074,13 @@
         <v>77</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>375</v>
+        <v>201</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7884,13 +8107,13 @@
         <v>77</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>77</v>
+        <v>279</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>77</v>
+        <v>366</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>77</v>
+        <v>367</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>77</v>
@@ -7908,7 +8131,7 @@
         <v>77</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>274</v>
+        <v>363</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>78</v>
@@ -7920,19 +8143,19 @@
         <v>77</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>77</v>
+        <v>368</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>77</v>
+        <v>369</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>77</v>
+        <v>370</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>77</v>
@@ -7940,11 +8163,9 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="B53" t="s" s="2">
-        <v>378</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
         <v>77</v>
       </c>
@@ -7965,15 +8186,17 @@
         <v>77</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="M53" s="2"/>
+        <v>374</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>375</v>
+      </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>77</v>
@@ -8022,7 +8245,7 @@
         <v>77</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>274</v>
+        <v>371</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>78</v>
@@ -8034,27 +8257,27 @@
         <v>77</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>77</v>
+        <v>376</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>77</v>
+        <v>377</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>77</v>
+        <v>378</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>77</v>
+        <v>379</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8065,7 +8288,7 @@
         <v>78</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>77</v>
@@ -8074,22 +8297,22 @@
         <v>77</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J54" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="K54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="N54" t="s" s="2">
         <v>385</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>387</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>77</v>
@@ -8138,13 +8361,13 @@
         <v>77</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>77</v>
@@ -8153,16 +8376,16 @@
         <v>98</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>77</v>
+        <v>386</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>77</v>
@@ -8170,7 +8393,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8181,7 +8404,7 @@
         <v>78</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>77</v>
@@ -8190,23 +8413,21 @@
         <v>77</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>266</v>
+        <v>390</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="L55" t="s" s="2">
-        <v>393</v>
-      </c>
       <c r="M55" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>395</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>77</v>
       </c>
@@ -8254,13 +8475,13 @@
         <v>77</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>77</v>
@@ -8272,13 +8493,13 @@
         <v>77</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>77</v>
@@ -8286,7 +8507,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8297,7 +8518,7 @@
         <v>78</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>77</v>
@@ -8309,16 +8530,16 @@
         <v>77</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>197</v>
+        <v>396</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>200</v>
+        <v>399</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8344,11 +8565,13 @@
         <v>77</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="X56" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Y56" t="s" s="2">
-        <v>402</v>
+        <v>77</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>77</v>
@@ -8366,13 +8589,13 @@
         <v>77</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>77</v>
@@ -8381,16 +8604,16 @@
         <v>98</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>77</v>
+        <v>400</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>404</v>
+        <v>77</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>77</v>
@@ -8398,7 +8621,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8421,13 +8644,13 @@
         <v>77</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>266</v>
+        <v>336</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>267</v>
+        <v>403</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>268</v>
+        <v>404</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8478,7 +8701,7 @@
         <v>77</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>269</v>
+        <v>402</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>78</v>
@@ -8490,13 +8713,13 @@
         <v>77</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>77</v>
+        <v>405</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>270</v>
+        <v>406</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>77</v>
@@ -8510,18 +8733,18 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>77</v>
@@ -8533,17 +8756,15 @@
         <v>77</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>131</v>
+        <v>180</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>272</v>
+        <v>181</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>163</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="M58" s="2"/>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>77</v>
@@ -8580,37 +8801,37 @@
         <v>77</v>
       </c>
       <c r="AA58" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>373</v>
+        <v>77</v>
       </c>
       <c r="AC58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD58" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>274</v>
+        <v>183</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>270</v>
+        <v>184</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>77</v>
@@ -8624,11 +8845,9 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="B59" t="s" s="2">
-        <v>407</v>
-      </c>
+        <v>408</v>
+      </c>
+      <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
         <v>77</v>
       </c>
@@ -8649,13 +8868,13 @@
         <v>77</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>408</v>
+        <v>131</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>409</v>
+        <v>132</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>410</v>
+        <v>133</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -8694,19 +8913,17 @@
         <v>77</v>
       </c>
       <c r="AA59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB59" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AB59" s="2"/>
       <c r="AC59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD59" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>274</v>
+        <v>189</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>78</v>
@@ -8738,9 +8955,11 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="B60" s="2"/>
+        <v>408</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>409</v>
+      </c>
       <c r="C60" t="s" s="2">
         <v>77</v>
       </c>
@@ -8758,23 +8977,19 @@
         <v>77</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>383</v>
+        <v>410</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>384</v>
+        <v>411</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>387</v>
-      </c>
+        <v>412</v>
+      </c>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>77</v>
       </c>
@@ -8822,7 +9037,7 @@
         <v>77</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>388</v>
+        <v>189</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>78</v>
@@ -8831,22 +9046,22 @@
         <v>79</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>77</v>
+        <v>142</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>389</v>
+        <v>77</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>390</v>
+        <v>77</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>77</v>
@@ -8854,9 +9069,11 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="B61" s="2"/>
+        <v>408</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>413</v>
+      </c>
       <c r="C61" t="s" s="2">
         <v>77</v>
       </c>
@@ -8865,7 +9082,7 @@
         <v>78</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>77</v>
@@ -8874,23 +9091,19 @@
         <v>77</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>266</v>
+        <v>414</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>392</v>
+        <v>415</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>395</v>
-      </c>
+        <v>416</v>
+      </c>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>77</v>
       </c>
@@ -8938,31 +9151,31 @@
         <v>77</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>396</v>
+        <v>189</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>77</v>
+        <v>142</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>397</v>
+        <v>77</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>398</v>
+        <v>77</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>77</v>
@@ -8970,9 +9183,11 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="B62" s="2"/>
+        <v>408</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>417</v>
+      </c>
       <c r="C62" t="s" s="2">
         <v>77</v>
       </c>
@@ -8981,7 +9196,7 @@
         <v>78</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>77</v>
@@ -8993,20 +9208,16 @@
         <v>77</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>197</v>
+        <v>418</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>416</v>
-      </c>
+        <v>420</v>
+      </c>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>77</v>
       </c>
@@ -9030,13 +9241,13 @@
         <v>77</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>201</v>
+        <v>77</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>417</v>
+        <v>77</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>418</v>
+        <v>77</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>77</v>
@@ -9054,31 +9265,31 @@
         <v>77</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>413</v>
+        <v>189</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>77</v>
+        <v>142</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>419</v>
+        <v>77</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>420</v>
+        <v>77</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>77</v>
@@ -9086,9 +9297,11 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="B63" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
         <v>77</v>
       </c>
@@ -9097,7 +9310,7 @@
         <v>78</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>77</v>
@@ -9109,13 +9322,13 @@
         <v>77</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>266</v>
+        <v>422</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>267</v>
+        <v>423</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>268</v>
+        <v>424</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -9166,25 +9379,25 @@
         <v>77</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>269</v>
+        <v>189</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>77</v>
+        <v>142</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>270</v>
+        <v>77</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>77</v>
@@ -9198,11 +9411,13 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="B64" s="2"/>
+        <v>408</v>
+      </c>
+      <c r="B64" t="s" s="2">
+        <v>425</v>
+      </c>
       <c r="C64" t="s" s="2">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -9221,17 +9436,15 @@
         <v>77</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>131</v>
+        <v>426</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>272</v>
+        <v>427</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>163</v>
-      </c>
+        <v>428</v>
+      </c>
+      <c r="M64" s="2"/>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>77</v>
@@ -9268,19 +9481,19 @@
         <v>77</v>
       </c>
       <c r="AA64" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>373</v>
+        <v>77</v>
       </c>
       <c r="AC64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD64" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>274</v>
+        <v>189</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>78</v>
@@ -9289,7 +9502,7 @@
         <v>79</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>77</v>
+        <v>142</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>137</v>
@@ -9298,7 +9511,7 @@
         <v>77</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>270</v>
+        <v>77</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>77</v>
@@ -9312,13 +9525,11 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="B65" t="s" s="2">
-        <v>423</v>
-      </c>
+        <v>429</v>
+      </c>
+      <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>77</v>
+        <v>346</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
@@ -9331,22 +9542,26 @@
         <v>77</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>424</v>
+        <v>131</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>425</v>
+        <v>347</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="M65" s="2"/>
-      <c r="N65" s="2"/>
+        <v>348</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>164</v>
+      </c>
       <c r="O65" t="s" s="2">
         <v>77</v>
       </c>
@@ -9394,7 +9609,7 @@
         <v>77</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>274</v>
+        <v>349</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>78</v>
@@ -9412,7 +9627,7 @@
         <v>77</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>77</v>
@@ -9426,7 +9641,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9437,7 +9652,7 @@
         <v>78</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>77</v>
@@ -9446,23 +9661,19 @@
         <v>77</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>383</v>
+        <v>180</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>384</v>
+        <v>431</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>387</v>
-      </c>
+        <v>432</v>
+      </c>
+      <c r="M66" s="2"/>
+      <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>77</v>
       </c>
@@ -9498,23 +9709,25 @@
         <v>77</v>
       </c>
       <c r="AA66" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="AB66" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AC66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD66" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>388</v>
+        <v>430</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>77</v>
@@ -9526,13 +9739,13 @@
         <v>77</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>389</v>
+        <v>433</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>390</v>
+        <v>77</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>77</v>
@@ -9540,11 +9753,9 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="B67" t="s" s="2">
-        <v>429</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
         <v>77</v>
       </c>
@@ -9562,23 +9773,21 @@
         <v>77</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>383</v>
+        <v>201</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>433</v>
-      </c>
+        <v>437</v>
+      </c>
+      <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>77</v>
       </c>
@@ -9606,31 +9815,31 @@
       </c>
       <c r="X67" s="2"/>
       <c r="Y67" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE67" t="s" s="2">
         <v>434</v>
       </c>
-      <c r="Z67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE67" t="s" s="2">
-        <v>388</v>
-      </c>
       <c r="AF67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>77</v>
@@ -9642,13 +9851,13 @@
         <v>77</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>389</v>
+        <v>439</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>390</v>
+        <v>440</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>77</v>
@@ -9656,7 +9865,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9679,13 +9888,13 @@
         <v>77</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>266</v>
+        <v>180</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>267</v>
+        <v>181</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>268</v>
+        <v>182</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -9736,7 +9945,7 @@
         <v>77</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>269</v>
+        <v>183</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>78</v>
@@ -9754,7 +9963,7 @@
         <v>77</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>270</v>
+        <v>184</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>77</v>
@@ -9768,7 +9977,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9794,10 +10003,10 @@
         <v>131</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>272</v>
+        <v>186</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>273</v>
+        <v>187</v>
       </c>
       <c r="M69" t="s" s="2">
         <v>163</v>
@@ -9841,7 +10050,7 @@
         <v>134</v>
       </c>
       <c r="AB69" t="s" s="2">
-        <v>373</v>
+        <v>188</v>
       </c>
       <c r="AC69" t="s" s="2">
         <v>77</v>
@@ -9850,7 +10059,7 @@
         <v>135</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>274</v>
+        <v>189</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>78</v>
@@ -9868,7 +10077,7 @@
         <v>77</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>270</v>
+        <v>184</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>77</v>
@@ -9882,18 +10091,20 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="B70" s="2"/>
+        <v>442</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>443</v>
+      </c>
       <c r="C70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>77</v>
@@ -9902,29 +10113,25 @@
         <v>77</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>100</v>
+        <v>444</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>441</v>
-      </c>
+        <v>446</v>
+      </c>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P70" s="2"/>
       <c r="Q70" t="s" s="2">
-        <v>442</v>
+        <v>77</v>
       </c>
       <c r="R70" t="s" s="2">
         <v>77</v>
@@ -9966,31 +10173,31 @@
         <v>77</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>443</v>
+        <v>189</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>444</v>
+        <v>77</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>445</v>
+        <v>77</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>77</v>
@@ -9998,9 +10205,11 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="B71" s="2"/>
+        <v>442</v>
+      </c>
+      <c r="B71" t="s" s="2">
+        <v>447</v>
+      </c>
       <c r="C71" t="s" s="2">
         <v>77</v>
       </c>
@@ -10009,7 +10218,7 @@
         <v>78</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>77</v>
@@ -10018,20 +10227,18 @@
         <v>77</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>266</v>
+        <v>448</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>449</v>
-      </c>
+        <v>450</v>
+      </c>
+      <c r="M71" s="2"/>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>77</v>
@@ -10080,31 +10287,31 @@
         <v>77</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>450</v>
+        <v>189</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>451</v>
+        <v>77</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>452</v>
+        <v>77</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>77</v>
@@ -10112,7 +10319,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10123,7 +10330,7 @@
         <v>78</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>77</v>
@@ -10135,15 +10342,17 @@
         <v>87</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>106</v>
+        <v>452</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="L72" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="L72" t="s" s="2">
+      <c r="M72" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="M72" s="2"/>
       <c r="N72" t="s" s="2">
         <v>456</v>
       </c>
@@ -10200,7 +10409,7 @@
         <v>78</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>77</v>
@@ -10249,7 +10458,7 @@
         <v>87</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>266</v>
+        <v>180</v>
       </c>
       <c r="K73" t="s" s="2">
         <v>461</v>
@@ -10257,9 +10466,11 @@
       <c r="L73" t="s" s="2">
         <v>462</v>
       </c>
-      <c r="M73" s="2"/>
+      <c r="M73" t="s" s="2">
+        <v>463</v>
+      </c>
       <c r="N73" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>77</v>
@@ -10308,7 +10519,7 @@
         <v>77</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>78</v>
@@ -10326,13 +10537,13 @@
         <v>77</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>77</v>
@@ -10340,7 +10551,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10360,10 +10571,10 @@
         <v>77</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>468</v>
+        <v>201</v>
       </c>
       <c r="K74" t="s" s="2">
         <v>469</v>
@@ -10372,11 +10583,9 @@
         <v>470</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>472</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>77</v>
       </c>
@@ -10400,13 +10609,11 @@
         <v>77</v>
       </c>
       <c r="W74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X74" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="X74" s="2"/>
       <c r="Y74" t="s" s="2">
-        <v>77</v>
+        <v>471</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>77</v>
@@ -10424,7 +10631,7 @@
         <v>77</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>78</v>
@@ -10442,13 +10649,13 @@
         <v>77</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>77</v>
@@ -10456,11 +10663,9 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="B75" t="s" s="2">
-        <v>476</v>
-      </c>
+        <v>474</v>
+      </c>
+      <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
         <v>77</v>
       </c>
@@ -10478,23 +10683,19 @@
         <v>77</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>383</v>
+        <v>180</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>477</v>
+        <v>181</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>433</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="M75" s="2"/>
+      <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
         <v>77</v>
       </c>
@@ -10518,11 +10719,13 @@
         <v>77</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="X75" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Y75" t="s" s="2">
-        <v>479</v>
+        <v>77</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>77</v>
@@ -10540,31 +10743,31 @@
         <v>77</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>388</v>
+        <v>183</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>389</v>
+        <v>184</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>390</v>
+        <v>77</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>77</v>
@@ -10572,18 +10775,18 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>435</v>
+        <v>475</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>77</v>
+        <v>160</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>77</v>
@@ -10595,15 +10798,17 @@
         <v>77</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>266</v>
+        <v>131</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>267</v>
+        <v>186</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="M76" s="2"/>
+        <v>187</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
         <v>77</v>
@@ -10640,37 +10845,37 @@
         <v>77</v>
       </c>
       <c r="AA76" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AB76" t="s" s="2">
-        <v>77</v>
+        <v>188</v>
       </c>
       <c r="AC76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD76" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>269</v>
+        <v>189</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>270</v>
+        <v>184</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>77</v>
@@ -10684,11 +10889,13 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="B77" s="2"/>
+        <v>475</v>
+      </c>
+      <c r="B77" t="s" s="2">
+        <v>476</v>
+      </c>
       <c r="C77" t="s" s="2">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
@@ -10707,17 +10914,15 @@
         <v>77</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>131</v>
+        <v>477</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>272</v>
+        <v>478</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>163</v>
-      </c>
+        <v>479</v>
+      </c>
+      <c r="M77" s="2"/>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
         <v>77</v>
@@ -10754,19 +10959,19 @@
         <v>77</v>
       </c>
       <c r="AA77" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB77" t="s" s="2">
-        <v>373</v>
+        <v>77</v>
       </c>
       <c r="AC77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD77" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>274</v>
+        <v>189</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>78</v>
@@ -10784,7 +10989,7 @@
         <v>77</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>270</v>
+        <v>77</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>77</v>
@@ -10798,7 +11003,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>437</v>
+        <v>480</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10806,10 +11011,10 @@
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>77</v>
@@ -10821,26 +11026,26 @@
         <v>87</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>100</v>
+        <v>452</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>438</v>
+        <v>453</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>439</v>
+        <v>454</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>441</v>
+        <v>456</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P78" s="2"/>
       <c r="Q78" t="s" s="2">
-        <v>480</v>
+        <v>77</v>
       </c>
       <c r="R78" t="s" s="2">
         <v>77</v>
@@ -10882,13 +11087,13 @@
         <v>77</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>443</v>
+        <v>457</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>77</v>
@@ -10900,13 +11105,13 @@
         <v>77</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>444</v>
+        <v>458</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>445</v>
+        <v>459</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>77</v>
@@ -10914,7 +11119,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>446</v>
+        <v>481</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10937,18 +11142,20 @@
         <v>87</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>266</v>
+        <v>180</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="N79" s="2"/>
+        <v>463</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>464</v>
+      </c>
       <c r="O79" t="s" s="2">
         <v>77</v>
       </c>
@@ -10996,7 +11203,7 @@
         <v>77</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>450</v>
+        <v>465</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>78</v>
@@ -11014,13 +11221,13 @@
         <v>77</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>451</v>
+        <v>466</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>452</v>
+        <v>467</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>77</v>
@@ -11028,7 +11235,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>453</v>
+        <v>482</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11048,20 +11255,22 @@
         <v>77</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>106</v>
+        <v>201</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>454</v>
+        <v>483</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="M80" s="2"/>
+        <v>483</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>484</v>
+      </c>
       <c r="N80" t="s" s="2">
-        <v>456</v>
+        <v>485</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>77</v>
@@ -11086,13 +11295,13 @@
         <v>77</v>
       </c>
       <c r="W80" t="s" s="2">
-        <v>77</v>
+        <v>279</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>77</v>
+        <v>486</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>77</v>
+        <v>487</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>77</v>
@@ -11110,7 +11319,7 @@
         <v>77</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>457</v>
+        <v>482</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>78</v>
@@ -11128,13 +11337,13 @@
         <v>77</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>458</v>
+        <v>488</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>459</v>
+        <v>489</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>77</v>
@@ -11142,7 +11351,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>460</v>
+        <v>490</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11162,21 +11371,19 @@
         <v>77</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>266</v>
+        <v>180</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>461</v>
+        <v>181</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>462</v>
+        <v>182</v>
       </c>
       <c r="M81" s="2"/>
-      <c r="N81" t="s" s="2">
-        <v>463</v>
-      </c>
+      <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
         <v>77</v>
       </c>
@@ -11224,7 +11431,7 @@
         <v>77</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>464</v>
+        <v>183</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>78</v>
@@ -11236,19 +11443,19 @@
         <v>77</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>465</v>
+        <v>184</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>466</v>
+        <v>77</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>77</v>
@@ -11256,18 +11463,18 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>467</v>
+        <v>491</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>77</v>
+        <v>160</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>77</v>
@@ -11276,23 +11483,21 @@
         <v>77</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>468</v>
+        <v>131</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>469</v>
+        <v>186</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>470</v>
+        <v>187</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>472</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
         <v>77</v>
       </c>
@@ -11328,43 +11533,43 @@
         <v>77</v>
       </c>
       <c r="AA82" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AB82" t="s" s="2">
-        <v>77</v>
+        <v>188</v>
       </c>
       <c r="AC82" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD82" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>473</v>
+        <v>189</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>474</v>
+        <v>184</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>475</v>
+        <v>77</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>77</v>
@@ -11372,9 +11577,11 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="B83" s="2"/>
+        <v>491</v>
+      </c>
+      <c r="B83" t="s" s="2">
+        <v>492</v>
+      </c>
       <c r="C83" t="s" s="2">
         <v>77</v>
       </c>
@@ -11383,7 +11590,7 @@
         <v>78</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>77</v>
@@ -11392,23 +11599,19 @@
         <v>77</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>266</v>
+        <v>493</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>482</v>
+        <v>494</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>485</v>
-      </c>
+        <v>495</v>
+      </c>
+      <c r="M83" s="2"/>
+      <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
         <v>77</v>
       </c>
@@ -11456,31 +11659,31 @@
         <v>77</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>396</v>
+        <v>189</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>397</v>
+        <v>77</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>398</v>
+        <v>77</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>77</v>
@@ -11488,7 +11691,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>486</v>
+        <v>496</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11499,7 +11702,7 @@
         <v>78</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>77</v>
@@ -11508,21 +11711,23 @@
         <v>77</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>487</v>
+        <v>452</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>488</v>
+        <v>453</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>489</v>
+        <v>454</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="N84" s="2"/>
+        <v>455</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>456</v>
+      </c>
       <c r="O84" t="s" s="2">
         <v>77</v>
       </c>
@@ -11558,43 +11763,41 @@
         <v>77</v>
       </c>
       <c r="AA84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB84" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="AB84" s="2"/>
       <c r="AC84" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD84" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>486</v>
+        <v>457</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>491</v>
+        <v>98</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>492</v>
+        <v>458</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>493</v>
+        <v>459</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>77</v>
@@ -11602,9 +11805,11 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="B85" s="2"/>
+        <v>496</v>
+      </c>
+      <c r="B85" t="s" s="2">
+        <v>497</v>
+      </c>
       <c r="C85" t="s" s="2">
         <v>77</v>
       </c>
@@ -11622,21 +11827,23 @@
         <v>77</v>
       </c>
       <c r="I85" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>495</v>
+        <v>452</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="N85" s="2"/>
+        <v>500</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>501</v>
+      </c>
       <c r="O85" t="s" s="2">
         <v>77</v>
       </c>
@@ -11660,35 +11867,35 @@
         <v>77</v>
       </c>
       <c r="W85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X85" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="X85" s="2"/>
       <c r="Y85" t="s" s="2">
-        <v>77</v>
+        <v>502</v>
       </c>
       <c r="Z85" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AA85" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="AB85" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AC85" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD85" t="s" s="2">
-        <v>219</v>
+        <v>77</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>494</v>
+        <v>457</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>77</v>
@@ -11700,13 +11907,13 @@
         <v>77</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>499</v>
+        <v>458</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>500</v>
+        <v>459</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>77</v>
@@ -11714,11 +11921,9 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="B86" t="s" s="2">
-        <v>501</v>
-      </c>
+        <v>503</v>
+      </c>
+      <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
         <v>77</v>
       </c>
@@ -11739,17 +11944,15 @@
         <v>77</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>502</v>
+        <v>180</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>503</v>
+        <v>181</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>504</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="M86" s="2"/>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
         <v>77</v>
@@ -11798,7 +12001,7 @@
         <v>77</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>494</v>
+        <v>183</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>78</v>
@@ -11807,22 +12010,22 @@
         <v>86</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>505</v>
+        <v>77</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>506</v>
+        <v>184</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>77</v>
@@ -11830,20 +12033,18 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="B87" t="s" s="2">
-        <v>507</v>
-      </c>
+        <v>504</v>
+      </c>
+      <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
-        <v>77</v>
+        <v>160</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F87" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>77</v>
@@ -11855,16 +12056,16 @@
         <v>77</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>508</v>
+        <v>131</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>509</v>
+        <v>186</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>509</v>
+        <v>187</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>510</v>
+        <v>163</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
@@ -11902,43 +12103,43 @@
         <v>77</v>
       </c>
       <c r="AA87" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AB87" t="s" s="2">
-        <v>77</v>
+        <v>188</v>
       </c>
       <c r="AC87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD87" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>494</v>
+        <v>189</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>491</v>
+        <v>137</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>492</v>
+        <v>184</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>493</v>
+        <v>77</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>77</v>
@@ -11946,7 +12147,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -11954,10 +12155,10 @@
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F88" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G88" t="s" s="2">
         <v>77</v>
@@ -11966,27 +12167,29 @@
         <v>77</v>
       </c>
       <c r="I88" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>512</v>
+        <v>100</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="N88" s="2"/>
+        <v>508</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>509</v>
+      </c>
       <c r="O88" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P88" s="2"/>
       <c r="Q88" t="s" s="2">
-        <v>77</v>
+        <v>510</v>
       </c>
       <c r="R88" t="s" s="2">
         <v>77</v>
@@ -12034,7 +12237,7 @@
         <v>78</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH88" t="s" s="2">
         <v>77</v>
@@ -12046,15 +12249,2077 @@
         <v>77</v>
       </c>
       <c r="AK88" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="AN88" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="B89" s="2"/>
+      <c r="C89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D89" s="2"/>
+      <c r="E89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F89" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="L89" t="s" s="2">
         <v>516</v>
       </c>
-      <c r="AL88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN88" t="s" s="2">
+      <c r="M89" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="N89" s="2"/>
+      <c r="O89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P89" s="2"/>
+      <c r="Q89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="AL89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM89" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="AN89" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="B90" s="2"/>
+      <c r="C90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D90" s="2"/>
+      <c r="E90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F90" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="K90" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="M90" s="2"/>
+      <c r="N90" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="O90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P90" s="2"/>
+      <c r="Q90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="AL90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM90" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="AN90" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="B91" s="2"/>
+      <c r="C91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D91" s="2"/>
+      <c r="E91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F91" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I91" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J91" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="M91" s="2"/>
+      <c r="N91" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="O91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P91" s="2"/>
+      <c r="Q91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="AL91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM91" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="AN91" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="B92" s="2"/>
+      <c r="C92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D92" s="2"/>
+      <c r="E92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F92" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I92" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J92" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="K92" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="M92" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="N92" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="O92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P92" s="2"/>
+      <c r="Q92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE92" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="AF92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="AL92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM92" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="AN92" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="B93" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="C93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D93" s="2"/>
+      <c r="E93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F93" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I93" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J93" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="K93" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="O93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P93" s="2"/>
+      <c r="Q93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W93" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="X93" s="2"/>
+      <c r="Y93" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="Z93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE93" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="AF93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI93" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK93" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AL93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM93" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="AN93" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="B94" s="2"/>
+      <c r="C94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D94" s="2"/>
+      <c r="E94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F94" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J94" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="K94" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="L94" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="M94" s="2"/>
+      <c r="N94" s="2"/>
+      <c r="O94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P94" s="2"/>
+      <c r="Q94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE94" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="AF94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG94" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK94" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="AL94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN94" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="B95" s="2"/>
+      <c r="C95" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="D95" s="2"/>
+      <c r="E95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J95" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K95" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="L95" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="M95" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="N95" s="2"/>
+      <c r="O95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P95" s="2"/>
+      <c r="Q95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA95" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AB95" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AC95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD95" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AE95" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AF95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI95" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AJ95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK95" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="AL95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN95" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="B96" s="2"/>
+      <c r="C96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D96" s="2"/>
+      <c r="E96" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F96" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I96" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J96" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="K96" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="L96" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="M96" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="N96" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="O96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P96" s="2"/>
+      <c r="Q96" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="R96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE96" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="AF96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG96" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI96" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK96" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="AL96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM96" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="AN96" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="B97" s="2"/>
+      <c r="C97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D97" s="2"/>
+      <c r="E97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F97" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I97" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J97" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="K97" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="L97" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="M97" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="N97" s="2"/>
+      <c r="O97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P97" s="2"/>
+      <c r="Q97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE97" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="AF97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG97" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI97" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK97" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="AL97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM97" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="AN97" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="B98" s="2"/>
+      <c r="C98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D98" s="2"/>
+      <c r="E98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F98" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I98" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J98" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="K98" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="L98" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="M98" s="2"/>
+      <c r="N98" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="O98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P98" s="2"/>
+      <c r="Q98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE98" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="AF98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG98" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI98" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK98" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="AL98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM98" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="AN98" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="B99" s="2"/>
+      <c r="C99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D99" s="2"/>
+      <c r="E99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F99" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I99" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J99" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="K99" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="L99" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="M99" s="2"/>
+      <c r="N99" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="O99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P99" s="2"/>
+      <c r="Q99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE99" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="AF99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG99" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI99" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK99" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="AL99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM99" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="AN99" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="B100" s="2"/>
+      <c r="C100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D100" s="2"/>
+      <c r="E100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F100" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I100" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J100" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="K100" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="L100" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="M100" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="N100" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="O100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P100" s="2"/>
+      <c r="Q100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE100" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="AF100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG100" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI100" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK100" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="AL100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM100" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="AN100" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="B101" s="2"/>
+      <c r="C101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D101" s="2"/>
+      <c r="E101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F101" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I101" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J101" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="K101" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="L101" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="M101" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="N101" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="O101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P101" s="2"/>
+      <c r="Q101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE101" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="AF101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG101" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI101" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK101" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="AL101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM101" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="AN101" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="B102" s="2"/>
+      <c r="C102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D102" s="2"/>
+      <c r="E102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F102" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J102" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="K102" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="L102" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="M102" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="N102" s="2"/>
+      <c r="O102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P102" s="2"/>
+      <c r="Q102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE102" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="AF102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG102" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH102" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AI102" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="AJ102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK102" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="AL102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM102" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="AN102" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="B103" s="2"/>
+      <c r="C103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D103" s="2"/>
+      <c r="E103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F103" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J103" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="K103" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="L103" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="M103" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="N103" s="2"/>
+      <c r="O103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P103" s="2"/>
+      <c r="Q103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA103" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="AB103" s="2"/>
+      <c r="AC103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD103" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AE103" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="AF103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG103" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI103" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK103" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="AL103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM103" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="AN103" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="B104" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="C104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D104" s="2"/>
+      <c r="E104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F104" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J104" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="K104" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="L104" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="M104" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="N104" s="2"/>
+      <c r="O104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P104" s="2"/>
+      <c r="Q104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE104" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="AF104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG104" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH104" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AI104" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="AJ104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK104" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="AL104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM104" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AN104" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="B105" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="C105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D105" s="2"/>
+      <c r="E105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F105" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J105" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="K105" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="L105" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="M105" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="N105" s="2"/>
+      <c r="O105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P105" s="2"/>
+      <c r="Q105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE105" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="AF105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG105" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH105" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AI105" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="AJ105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK105" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="AL105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM105" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="AN105" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="B106" s="2"/>
+      <c r="C106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D106" s="2"/>
+      <c r="E106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J106" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="K106" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="L106" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="M106" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="N106" s="2"/>
+      <c r="O106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P106" s="2"/>
+      <c r="Q106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE106" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="AF106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI106" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK106" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="AL106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN106" t="s" s="2">
         <v>77</v>
       </c>
     </row>

--- a/jpcore-r4/feature/swg1-CodeSystem修正/StructureDefinition-jp-medicationadministration-injection.xlsx
+++ b/jpcore-r4/feature/swg1-CodeSystem修正/StructureDefinition-jp-medicationadministration-injection.xlsx
@@ -75,7 +75,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>JP</t>
+    <t>Japan</t>
   </si>
   <si>
     <t>Description</t>

--- a/jpcore-r4/feature/swg1-CodeSystem修正/StructureDefinition-jp-medicationadministration-injection.xlsx
+++ b/jpcore-r4/feature/swg1-CodeSystem修正/StructureDefinition-jp-medicationadministration-injection.xlsx
@@ -75,7 +75,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>Japan</t>
+    <t>JP</t>
   </si>
   <si>
     <t>Description</t>

--- a/jpcore-r4/feature/swg1-CodeSystem修正/StructureDefinition-jp-medicationadministration-injection.xlsx
+++ b/jpcore-r4/feature/swg1-CodeSystem修正/StructureDefinition-jp-medicationadministration-injection.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3854" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3854" uniqueCount="585">
   <si>
     <t>Property</t>
   </si>
@@ -262,10 +262,6 @@
   </si>
   <si>
     <t>Describes the event of a patient consuming or otherwise being administered a medication.  This may be as simple as swallowing a tablet or it may be a long running infusion.  Related resources tie this event to the authorizing prescription, and the specific encounter between patient and health care practitioner.</t>
-  </si>
-  <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -2458,13 +2454,13 @@
         <v>78</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="AJ2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="AK2" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="AL2" t="s" s="2">
         <v>78</v>
@@ -2478,7 +2474,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -2489,28 +2485,28 @@
         <v>79</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>92</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -2560,13 +2556,13 @@
         <v>78</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>78</v>
@@ -2592,7 +2588,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -2603,25 +2599,25 @@
         <v>79</v>
       </c>
       <c r="F4" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J4" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -2672,19 +2668,19 @@
         <v>78</v>
       </c>
       <c r="AE4" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI4" t="s" s="2">
         <v>98</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>99</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>78</v>
@@ -2704,7 +2700,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -2715,28 +2711,28 @@
         <v>79</v>
       </c>
       <c r="F5" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H5" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G5" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="I5" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>103</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>104</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -2786,19 +2782,19 @@
         <v>78</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>78</v>
@@ -2818,7 +2814,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -2829,7 +2825,7 @@
         <v>79</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>78</v>
@@ -2841,16 +2837,16 @@
         <v>78</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>110</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2876,43 +2872,43 @@
         <v>78</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="X6" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="Y6" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>114</v>
-      </c>
       <c r="AF6" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>78</v>
@@ -2932,18 +2928,18 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>78</v>
@@ -2955,16 +2951,16 @@
         <v>78</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>120</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -3014,25 +3010,25 @@
         <v>78</v>
       </c>
       <c r="AE7" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK7" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>78</v>
@@ -3046,11 +3042,11 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -3069,16 +3065,16 @@
         <v>78</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>127</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>128</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -3128,7 +3124,7 @@
         <v>78</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>79</v>
@@ -3146,7 +3142,7 @@
         <v>78</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>78</v>
@@ -3160,7 +3156,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -3183,13 +3179,13 @@
         <v>78</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>133</v>
-      </c>
-      <c r="L9" t="s" s="2">
-        <v>134</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -3228,17 +3224,17 @@
         <v>78</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD9" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AE9" t="s" s="2">
         <v>136</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>137</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>79</v>
@@ -3250,7 +3246,7 @@
         <v>78</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>78</v>
@@ -3270,10 +3266,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C10" t="s" s="2">
         <v>78</v>
@@ -3283,7 +3279,7 @@
         <v>79</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>78</v>
@@ -3295,13 +3291,13 @@
         <v>78</v>
       </c>
       <c r="J10" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="K10" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="K10" t="s" s="2">
+      <c r="L10" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="L10" t="s" s="2">
-        <v>142</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -3352,7 +3348,7 @@
         <v>78</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>79</v>
@@ -3361,10 +3357,10 @@
         <v>80</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>78</v>
@@ -3384,10 +3380,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C11" t="s" s="2">
         <v>78</v>
@@ -3397,7 +3393,7 @@
         <v>79</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>78</v>
@@ -3409,13 +3405,13 @@
         <v>78</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>146</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>147</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -3466,7 +3462,7 @@
         <v>78</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>79</v>
@@ -3475,10 +3471,10 @@
         <v>80</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>78</v>
@@ -3498,10 +3494,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C12" t="s" s="2">
         <v>78</v>
@@ -3511,7 +3507,7 @@
         <v>79</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>78</v>
@@ -3523,13 +3519,13 @@
         <v>78</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="K12" t="s" s="2">
+      <c r="L12" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -3580,7 +3576,7 @@
         <v>78</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>79</v>
@@ -3589,10 +3585,10 @@
         <v>80</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>78</v>
@@ -3612,10 +3608,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C13" t="s" s="2">
         <v>78</v>
@@ -3637,13 +3633,13 @@
         <v>78</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="K13" t="s" s="2">
+      <c r="L13" t="s" s="2">
         <v>154</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -3694,7 +3690,7 @@
         <v>78</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>79</v>
@@ -3703,10 +3699,10 @@
         <v>80</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>78</v>
@@ -3726,10 +3722,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C14" t="s" s="2">
         <v>78</v>
@@ -3751,13 +3747,13 @@
         <v>78</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="L14" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>159</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -3808,7 +3804,7 @@
         <v>78</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>79</v>
@@ -3820,7 +3816,7 @@
         <v>78</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>78</v>
@@ -3840,11 +3836,11 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -3857,25 +3853,25 @@
         <v>78</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>78</v>
@@ -3924,7 +3920,7 @@
         <v>78</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>79</v>
@@ -3936,13 +3932,13 @@
         <v>78</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>78</v>
@@ -3956,7 +3952,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3964,7 +3960,7 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>80</v>
@@ -3979,16 +3975,16 @@
         <v>78</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="L16" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -4026,17 +4022,17 @@
         <v>78</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AB16" s="2"/>
       <c r="AC16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>79</v>
@@ -4048,16 +4044,16 @@
         <v>78</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ16" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AK16" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="AK16" t="s" s="2">
+      <c r="AL16" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="AL16" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>78</v>
@@ -4068,20 +4064,20 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>78</v>
@@ -4093,16 +4089,16 @@
         <v>78</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -4152,7 +4148,7 @@
         <v>78</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>79</v>
@@ -4164,16 +4160,16 @@
         <v>78</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ17" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AK17" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="AK17" t="s" s="2">
+      <c r="AL17" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="AL17" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>78</v>
@@ -4184,7 +4180,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -4195,7 +4191,7 @@
         <v>79</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>78</v>
@@ -4207,13 +4203,13 @@
         <v>78</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -4264,25 +4260,25 @@
         <v>78</v>
       </c>
       <c r="AE18" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="AF18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK18" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="AF18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>78</v>
@@ -4296,11 +4292,11 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -4319,16 +4315,16 @@
         <v>78</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="L19" t="s" s="2">
-        <v>188</v>
-      </c>
       <c r="M19" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -4366,19 +4362,19 @@
         <v>78</v>
       </c>
       <c r="AA19" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD19" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="AB19" t="s" s="2">
+      <c r="AE19" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>79</v>
@@ -4390,13 +4386,13 @@
         <v>78</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>78</v>
@@ -4410,7 +4406,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4421,31 +4417,31 @@
         <v>79</v>
       </c>
       <c r="F20" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H20" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H20" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="I20" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>78</v>
@@ -4470,55 +4466,55 @@
         <v>78</v>
       </c>
       <c r="W20" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="X20" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="X20" t="s" s="2">
+      <c r="Y20" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="Y20" t="s" s="2">
+      <c r="Z20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE20" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="Z20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE20" t="s" s="2">
+      <c r="AF20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK20" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="AF20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG20" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK20" t="s" s="2">
-        <v>200</v>
-      </c>
       <c r="AL20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>78</v>
@@ -4526,7 +4522,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4537,31 +4533,31 @@
         <v>79</v>
       </c>
       <c r="F21" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I21" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I21" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J21" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>206</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>78</v>
@@ -4586,55 +4582,55 @@
         <v>78</v>
       </c>
       <c r="W21" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="X21" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="X21" t="s" s="2">
+      <c r="Y21" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="Y21" t="s" s="2">
+      <c r="Z21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE21" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="Z21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE21" t="s" s="2">
+      <c r="AF21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK21" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="AL21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM21" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="AF21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK21" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="AL21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>78</v>
@@ -4642,7 +4638,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4650,107 +4646,107 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F22" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I22" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="F22" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I22" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J22" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="R22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S22" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="R22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S22" t="s" s="2">
+      <c r="T22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE22" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="T22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE22" t="s" s="2">
+      <c r="AF22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK22" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="AF22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG22" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK22" t="s" s="2">
+      <c r="AL22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM22" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="AL22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>78</v>
@@ -4758,7 +4754,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4766,31 +4762,31 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F23" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I23" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="F23" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I23" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J23" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4804,67 +4800,67 @@
         <v>78</v>
       </c>
       <c r="S23" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="T23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE23" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="T23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE23" t="s" s="2">
+      <c r="AF23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK23" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="AF23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK23" t="s" s="2">
+      <c r="AL23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM23" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="AL23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>78</v>
@@ -4872,7 +4868,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4883,25 +4879,25 @@
         <v>79</v>
       </c>
       <c r="F24" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I24" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G24" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H24" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I24" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J24" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="L24" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4952,31 +4948,31 @@
         <v>78</v>
       </c>
       <c r="AE24" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="AF24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK24" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="AF24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG24" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK24" t="s" s="2">
+      <c r="AL24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM24" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="AL24" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM24" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>78</v>
@@ -4984,7 +4980,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4995,28 +4991,28 @@
         <v>79</v>
       </c>
       <c r="F25" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G25" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H25" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I25" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G25" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H25" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I25" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J25" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="L25" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -5066,31 +5062,31 @@
         <v>78</v>
       </c>
       <c r="AE25" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="AF25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK25" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="AF25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG25" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK25" t="s" s="2">
+      <c r="AL25" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM25" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>78</v>
@@ -5098,10 +5094,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C26" t="s" s="2">
         <v>78</v>
@@ -5123,16 +5119,16 @@
         <v>78</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -5182,7 +5178,7 @@
         <v>78</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>79</v>
@@ -5194,16 +5190,16 @@
         <v>78</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ26" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AK26" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="AK26" t="s" s="2">
+      <c r="AL26" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>78</v>
@@ -5214,7 +5210,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5225,7 +5221,7 @@
         <v>79</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>78</v>
@@ -5237,13 +5233,13 @@
         <v>78</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="L27" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -5294,25 +5290,25 @@
         <v>78</v>
       </c>
       <c r="AE27" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="AF27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK27" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="AF27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG27" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK27" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>78</v>
@@ -5326,11 +5322,11 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -5349,16 +5345,16 @@
         <v>78</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="L28" t="s" s="2">
-        <v>188</v>
-      </c>
       <c r="M28" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -5396,19 +5392,19 @@
         <v>78</v>
       </c>
       <c r="AA28" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD28" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="AB28" t="s" s="2">
+      <c r="AE28" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>79</v>
@@ -5420,13 +5416,13 @@
         <v>78</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>78</v>
@@ -5440,7 +5436,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5451,31 +5447,31 @@
         <v>79</v>
       </c>
       <c r="F29" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H29" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H29" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="I29" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>78</v>
@@ -5500,55 +5496,55 @@
         <v>78</v>
       </c>
       <c r="W29" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="X29" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="X29" t="s" s="2">
+      <c r="Y29" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="Y29" t="s" s="2">
+      <c r="Z29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE29" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="Z29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE29" t="s" s="2">
+      <c r="AF29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK29" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="AF29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG29" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI29" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK29" t="s" s="2">
-        <v>200</v>
-      </c>
       <c r="AL29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>78</v>
@@ -5556,7 +5552,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5567,31 +5563,31 @@
         <v>79</v>
       </c>
       <c r="F30" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I30" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I30" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J30" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="L30" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>206</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>78</v>
@@ -5616,55 +5612,55 @@
         <v>78</v>
       </c>
       <c r="W30" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="X30" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="X30" t="s" s="2">
+      <c r="Y30" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="Y30" t="s" s="2">
+      <c r="Z30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE30" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="Z30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE30" t="s" s="2">
+      <c r="AF30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK30" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="AL30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM30" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="AF30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG30" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI30" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK30" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="AL30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>78</v>
@@ -5672,7 +5668,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5680,107 +5676,107 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F31" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I31" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="F31" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I31" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J31" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="L31" t="s" s="2">
-        <v>250</v>
-      </c>
       <c r="M31" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="N31" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="R31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="S31" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="T31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE31" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="T31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE31" t="s" s="2">
+      <c r="AF31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK31" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="AF31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG31" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK31" t="s" s="2">
+      <c r="AL31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM31" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>78</v>
@@ -5788,7 +5784,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5796,31 +5792,31 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F32" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I32" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="F32" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I32" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J32" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -5834,67 +5830,67 @@
         <v>78</v>
       </c>
       <c r="S32" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="T32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE32" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="T32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE32" t="s" s="2">
+      <c r="AF32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK32" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="AF32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG32" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK32" t="s" s="2">
+      <c r="AL32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM32" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>78</v>
@@ -5902,7 +5898,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5913,25 +5909,25 @@
         <v>79</v>
       </c>
       <c r="F33" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I33" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I33" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J33" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="K33" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="K33" t="s" s="2">
+      <c r="L33" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5982,31 +5978,31 @@
         <v>78</v>
       </c>
       <c r="AE33" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK33" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="AF33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK33" t="s" s="2">
+      <c r="AL33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM33" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>78</v>
@@ -6014,7 +6010,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6025,28 +6021,28 @@
         <v>79</v>
       </c>
       <c r="F34" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I34" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I34" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J34" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="K34" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="K34" t="s" s="2">
+      <c r="L34" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -6096,31 +6092,31 @@
         <v>78</v>
       </c>
       <c r="AE34" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK34" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="AF34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG34" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK34" t="s" s="2">
+      <c r="AL34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM34" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>78</v>
@@ -6128,7 +6124,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6148,16 +6144,16 @@
         <v>78</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>257</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -6208,7 +6204,7 @@
         <v>78</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>79</v>
@@ -6220,13 +6216,13 @@
         <v>78</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ35" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="AK35" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>259</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>78</v>
@@ -6240,7 +6236,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6260,16 +6256,16 @@
         <v>78</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="K36" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="K36" t="s" s="2">
+      <c r="L36" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>263</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -6320,7 +6316,7 @@
         <v>78</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>79</v>
@@ -6332,13 +6328,13 @@
         <v>78</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ36" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="AK36" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="AK36" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>78</v>
@@ -6352,7 +6348,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6360,31 +6356,31 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F37" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H37" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="F37" t="s" s="2">
+      <c r="I37" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H37" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="I37" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J37" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -6410,55 +6406,55 @@
         <v>78</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="X37" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="Y37" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="Y37" t="s" s="2">
+      <c r="Z37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="Z37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE37" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="AF37" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AG37" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI37" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
+      <c r="AK37" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="AK37" t="s" s="2">
+      <c r="AL37" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="AL37" t="s" s="2">
+      <c r="AM37" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>78</v>
@@ -6466,7 +6462,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6489,16 +6485,16 @@
         <v>78</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -6524,14 +6520,14 @@
         <v>78</v>
       </c>
       <c r="W38" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="X38" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="X38" t="s" s="2">
+      <c r="Y38" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="Y38" t="s" s="2">
-        <v>282</v>
-      </c>
       <c r="Z38" t="s" s="2">
         <v>78</v>
       </c>
@@ -6548,7 +6544,7 @@
         <v>78</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>79</v>
@@ -6560,19 +6556,19 @@
         <v>78</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ38" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AK38" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="AK38" t="s" s="2">
+      <c r="AL38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM38" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="AL38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>78</v>
@@ -6580,7 +6576,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6591,7 +6587,7 @@
         <v>79</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>78</v>
@@ -6603,13 +6599,13 @@
         <v>78</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -6636,49 +6632,49 @@
         <v>78</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="X39" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="Y39" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="Y39" t="s" s="2">
+      <c r="Z39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK39" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="Z39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE39" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="AF39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG39" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK39" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>78</v>
@@ -6692,7 +6688,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6700,31 +6696,31 @@
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F40" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I40" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="F40" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I40" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J40" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="K40" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="K40" t="s" s="2">
+      <c r="L40" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>296</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6762,41 +6758,41 @@
         <v>78</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AB40" s="2"/>
       <c r="AC40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD40" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="AE40" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="AF40" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AG40" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI40" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ40" t="s" s="2">
+      <c r="AK40" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="AK40" t="s" s="2">
+      <c r="AL40" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="AL40" t="s" s="2">
+      <c r="AM40" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>302</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>78</v>
@@ -6804,41 +6800,41 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F41" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I41" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="F41" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I41" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J41" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>296</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6888,31 +6884,31 @@
         <v>78</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ41" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="AK41" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="AK41" t="s" s="2">
+      <c r="AL41" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="AL41" t="s" s="2">
+      <c r="AM41" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>302</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>78</v>
@@ -6920,7 +6916,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6928,31 +6924,31 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F42" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I42" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="F42" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I42" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J42" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="K42" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="K42" t="s" s="2">
+      <c r="L42" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>309</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -7002,31 +6998,31 @@
         <v>78</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ42" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="AK42" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="AK42" t="s" s="2">
+      <c r="AL42" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="AL42" t="s" s="2">
+      <c r="AM42" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>78</v>
@@ -7034,7 +7030,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7045,7 +7041,7 @@
         <v>79</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>78</v>
@@ -7057,16 +7053,16 @@
         <v>78</v>
       </c>
       <c r="J43" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="K43" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="K43" t="s" s="2">
+      <c r="L43" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="L43" t="s" s="2">
-        <v>317</v>
-      </c>
       <c r="M43" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -7116,31 +7112,31 @@
         <v>78</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ43" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AK43" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="AK43" t="s" s="2">
+      <c r="AL43" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="AL43" t="s" s="2">
+      <c r="AM43" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="AM43" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>78</v>
@@ -7148,7 +7144,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7171,16 +7167,16 @@
         <v>78</v>
       </c>
       <c r="J44" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="K44" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="K44" t="s" s="2">
+      <c r="L44" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="L44" t="s" s="2">
-        <v>325</v>
-      </c>
       <c r="M44" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -7230,7 +7226,7 @@
         <v>78</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>79</v>
@@ -7242,16 +7238,16 @@
         <v>78</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>78</v>
@@ -7262,7 +7258,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7270,31 +7266,31 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F45" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I45" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="F45" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I45" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J45" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="K45" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="K45" t="s" s="2">
+      <c r="L45" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>331</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -7344,31 +7340,31 @@
         <v>78</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ45" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="AK45" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="AK45" t="s" s="2">
+      <c r="AL45" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="AL45" t="s" s="2">
+      <c r="AM45" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>335</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>78</v>
@@ -7376,7 +7372,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7396,16 +7392,16 @@
         <v>78</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J46" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="K46" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="K46" t="s" s="2">
+      <c r="L46" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>339</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -7456,7 +7452,7 @@
         <v>78</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>79</v>
@@ -7468,19 +7464,19 @@
         <v>78</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ46" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="AK46" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="AK46" t="s" s="2">
+      <c r="AL46" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="AL46" t="s" s="2">
+      <c r="AM46" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="AM46" t="s" s="2">
-        <v>343</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>78</v>
@@ -7488,7 +7484,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7499,7 +7495,7 @@
         <v>79</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>78</v>
@@ -7511,13 +7507,13 @@
         <v>78</v>
       </c>
       <c r="J47" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="K47" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="K47" t="s" s="2">
+      <c r="L47" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -7568,25 +7564,25 @@
         <v>78</v>
       </c>
       <c r="AE47" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK47" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="AF47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG47" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH47" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI47" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ47" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK47" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>78</v>
@@ -7600,11 +7596,11 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -7623,16 +7619,16 @@
         <v>78</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="L48" t="s" s="2">
-        <v>188</v>
-      </c>
       <c r="M48" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -7682,7 +7678,7 @@
         <v>78</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>79</v>
@@ -7694,13 +7690,13 @@
         <v>78</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>78</v>
@@ -7714,11 +7710,11 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -7731,25 +7727,25 @@
         <v>78</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="L49" t="s" s="2">
-        <v>349</v>
-      </c>
       <c r="M49" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="N49" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>78</v>
@@ -7798,7 +7794,7 @@
         <v>78</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>79</v>
@@ -7810,13 +7806,13 @@
         <v>78</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>78</v>
@@ -7830,7 +7826,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7841,7 +7837,7 @@
         <v>79</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>78</v>
@@ -7853,13 +7849,13 @@
         <v>78</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>352</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>353</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7886,49 +7882,49 @@
         <v>78</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="X50" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="Y50" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="Y50" t="s" s="2">
+      <c r="Z50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="Z50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE50" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="AF50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG50" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI50" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ50" t="s" s="2">
+      <c r="AK50" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="AK50" t="s" s="2">
-        <v>357</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>78</v>
@@ -7942,7 +7938,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7950,28 +7946,28 @@
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F51" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I51" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="F51" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I51" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J51" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="K51" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="K51" t="s" s="2">
+      <c r="L51" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -8022,25 +8018,25 @@
         <v>78</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ51" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="AK51" t="s" s="2">
         <v>362</v>
-      </c>
-      <c r="AK51" t="s" s="2">
-        <v>363</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>78</v>
@@ -8054,7 +8050,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8077,13 +8073,13 @@
         <v>78</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>366</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -8110,14 +8106,14 @@
         <v>78</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="X52" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="Y52" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="Y52" t="s" s="2">
-        <v>368</v>
-      </c>
       <c r="Z52" t="s" s="2">
         <v>78</v>
       </c>
@@ -8134,7 +8130,7 @@
         <v>78</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>79</v>
@@ -8146,19 +8142,19 @@
         <v>78</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ52" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="AK52" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="AK52" t="s" s="2">
+      <c r="AL52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM52" t="s" s="2">
         <v>370</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>371</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>78</v>
@@ -8166,7 +8162,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8189,16 +8185,16 @@
         <v>78</v>
       </c>
       <c r="J53" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="K53" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="K53" t="s" s="2">
+      <c r="L53" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>375</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>376</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -8248,7 +8244,7 @@
         <v>78</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>79</v>
@@ -8260,27 +8256,27 @@
         <v>78</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ53" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="AK53" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="AK53" t="s" s="2">
+      <c r="AL53" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="AL53" t="s" s="2">
+      <c r="AM53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN53" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN53" t="s" s="2">
-        <v>380</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8291,7 +8287,7 @@
         <v>79</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>78</v>
@@ -8303,19 +8299,19 @@
         <v>78</v>
       </c>
       <c r="J54" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="K54" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="K54" t="s" s="2">
+      <c r="L54" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="M54" t="s" s="2">
+      <c r="N54" t="s" s="2">
         <v>385</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>386</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>78</v>
@@ -8364,31 +8360,31 @@
         <v>78</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ54" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="AK54" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="AK54" t="s" s="2">
+      <c r="AL54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM54" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>389</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>78</v>
@@ -8396,7 +8392,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8419,16 +8415,16 @@
         <v>78</v>
       </c>
       <c r="J55" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="K55" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="K55" t="s" s="2">
+      <c r="L55" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="L55" t="s" s="2">
-        <v>393</v>
-      </c>
       <c r="M55" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -8478,7 +8474,7 @@
         <v>78</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>79</v>
@@ -8490,19 +8486,19 @@
         <v>78</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK55" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM55" t="s" s="2">
         <v>394</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>395</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>78</v>
@@ -8510,7 +8506,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8533,16 +8529,16 @@
         <v>78</v>
       </c>
       <c r="J56" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="K56" t="s" s="2">
         <v>397</v>
       </c>
-      <c r="K56" t="s" s="2">
+      <c r="L56" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="M56" t="s" s="2">
         <v>399</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>400</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8592,7 +8588,7 @@
         <v>78</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>79</v>
@@ -8604,13 +8600,13 @@
         <v>78</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ56" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="AK56" t="s" s="2">
         <v>401</v>
-      </c>
-      <c r="AK56" t="s" s="2">
-        <v>402</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>78</v>
@@ -8624,7 +8620,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8635,7 +8631,7 @@
         <v>79</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>78</v>
@@ -8647,13 +8643,13 @@
         <v>78</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>404</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>405</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8704,25 +8700,25 @@
         <v>78</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI57" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK57" t="s" s="2">
         <v>406</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>407</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>78</v>
@@ -8736,7 +8732,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8747,7 +8743,7 @@
         <v>79</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>78</v>
@@ -8759,13 +8755,13 @@
         <v>78</v>
       </c>
       <c r="J58" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="K58" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="K58" t="s" s="2">
+      <c r="L58" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8816,25 +8812,25 @@
         <v>78</v>
       </c>
       <c r="AE58" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK58" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="AF58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG58" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK58" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>78</v>
@@ -8848,7 +8844,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8871,13 +8867,13 @@
         <v>78</v>
       </c>
       <c r="J59" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K59" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="K59" t="s" s="2">
+      <c r="L59" t="s" s="2">
         <v>133</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>134</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -8916,17 +8912,17 @@
         <v>78</v>
       </c>
       <c r="AA59" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AB59" s="2"/>
       <c r="AC59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD59" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>79</v>
@@ -8938,7 +8934,7 @@
         <v>78</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>78</v>
@@ -8958,10 +8954,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="B60" t="s" s="2">
         <v>409</v>
-      </c>
-      <c r="B60" t="s" s="2">
-        <v>410</v>
       </c>
       <c r="C60" t="s" s="2">
         <v>78</v>
@@ -8983,13 +8979,13 @@
         <v>78</v>
       </c>
       <c r="J60" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="K60" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="K60" t="s" s="2">
+      <c r="L60" t="s" s="2">
         <v>412</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>413</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -9040,7 +9036,7 @@
         <v>78</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>79</v>
@@ -9049,10 +9045,10 @@
         <v>80</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>78</v>
@@ -9072,10 +9068,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C61" t="s" s="2">
         <v>78</v>
@@ -9097,13 +9093,13 @@
         <v>78</v>
       </c>
       <c r="J61" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="K61" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="K61" t="s" s="2">
+      <c r="L61" t="s" s="2">
         <v>416</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>417</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -9154,7 +9150,7 @@
         <v>78</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>79</v>
@@ -9163,10 +9159,10 @@
         <v>80</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>78</v>
@@ -9186,10 +9182,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C62" t="s" s="2">
         <v>78</v>
@@ -9211,13 +9207,13 @@
         <v>78</v>
       </c>
       <c r="J62" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="K62" t="s" s="2">
         <v>419</v>
       </c>
-      <c r="K62" t="s" s="2">
+      <c r="L62" t="s" s="2">
         <v>420</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>421</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -9268,7 +9264,7 @@
         <v>78</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>79</v>
@@ -9277,10 +9273,10 @@
         <v>80</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>78</v>
@@ -9300,10 +9296,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C63" t="s" s="2">
         <v>78</v>
@@ -9325,13 +9321,13 @@
         <v>78</v>
       </c>
       <c r="J63" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="K63" t="s" s="2">
         <v>423</v>
       </c>
-      <c r="K63" t="s" s="2">
+      <c r="L63" t="s" s="2">
         <v>424</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>425</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -9382,7 +9378,7 @@
         <v>78</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>79</v>
@@ -9391,10 +9387,10 @@
         <v>80</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>78</v>
@@ -9414,10 +9410,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C64" t="s" s="2">
         <v>78</v>
@@ -9439,13 +9435,13 @@
         <v>78</v>
       </c>
       <c r="J64" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="K64" t="s" s="2">
         <v>427</v>
       </c>
-      <c r="K64" t="s" s="2">
+      <c r="L64" t="s" s="2">
         <v>428</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>429</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -9496,7 +9492,7 @@
         <v>78</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>79</v>
@@ -9505,10 +9501,10 @@
         <v>80</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>78</v>
@@ -9528,11 +9524,11 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
@@ -9545,25 +9541,25 @@
         <v>78</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="L65" t="s" s="2">
-        <v>349</v>
-      </c>
       <c r="M65" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="N65" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>78</v>
@@ -9612,7 +9608,7 @@
         <v>78</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>79</v>
@@ -9624,13 +9620,13 @@
         <v>78</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>78</v>
@@ -9644,7 +9640,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9655,7 +9651,7 @@
         <v>79</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>78</v>
@@ -9667,13 +9663,13 @@
         <v>78</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>432</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>433</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -9724,25 +9720,25 @@
         <v>78</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>78</v>
@@ -9756,7 +9752,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9767,7 +9763,7 @@
         <v>79</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>78</v>
@@ -9779,16 +9775,16 @@
         <v>78</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="L67" t="s" s="2">
+      <c r="M67" t="s" s="2">
         <v>437</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>438</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -9814,53 +9810,53 @@
         <v>78</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="X67" s="2"/>
       <c r="Y67" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK67" t="s" s="2">
         <v>439</v>
       </c>
-      <c r="Z67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE67" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="AF67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG67" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI67" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK67" t="s" s="2">
+      <c r="AL67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM67" t="s" s="2">
         <v>440</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>441</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>78</v>
@@ -9868,7 +9864,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9879,7 +9875,7 @@
         <v>79</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>78</v>
@@ -9891,13 +9887,13 @@
         <v>78</v>
       </c>
       <c r="J68" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="K68" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="K68" t="s" s="2">
+      <c r="L68" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -9948,25 +9944,25 @@
         <v>78</v>
       </c>
       <c r="AE68" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK68" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="AF68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG68" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK68" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>78</v>
@@ -9980,11 +9976,11 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
@@ -10003,16 +9999,16 @@
         <v>78</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="L69" t="s" s="2">
-        <v>188</v>
-      </c>
       <c r="M69" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
@@ -10050,19 +10046,19 @@
         <v>78</v>
       </c>
       <c r="AA69" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD69" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="AB69" t="s" s="2">
+      <c r="AE69" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD69" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AE69" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>79</v>
@@ -10074,13 +10070,13 @@
         <v>78</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>78</v>
@@ -10094,10 +10090,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="B70" t="s" s="2">
         <v>443</v>
-      </c>
-      <c r="B70" t="s" s="2">
-        <v>444</v>
       </c>
       <c r="C70" t="s" s="2">
         <v>78</v>
@@ -10119,13 +10115,13 @@
         <v>78</v>
       </c>
       <c r="J70" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="K70" t="s" s="2">
         <v>445</v>
       </c>
-      <c r="K70" t="s" s="2">
+      <c r="L70" t="s" s="2">
         <v>446</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>447</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -10176,7 +10172,7 @@
         <v>78</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>79</v>
@@ -10188,7 +10184,7 @@
         <v>78</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>78</v>
@@ -10208,10 +10204,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C71" t="s" s="2">
         <v>78</v>
@@ -10233,13 +10229,13 @@
         <v>78</v>
       </c>
       <c r="J71" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="K71" t="s" s="2">
         <v>449</v>
       </c>
-      <c r="K71" t="s" s="2">
+      <c r="L71" t="s" s="2">
         <v>450</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>451</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -10290,7 +10286,7 @@
         <v>78</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>79</v>
@@ -10302,7 +10298,7 @@
         <v>78</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>78</v>
@@ -10322,7 +10318,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10342,22 +10338,22 @@
         <v>78</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J72" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="K72" t="s" s="2">
         <v>453</v>
       </c>
-      <c r="K72" t="s" s="2">
+      <c r="L72" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="L72" t="s" s="2">
+      <c r="M72" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="M72" t="s" s="2">
+      <c r="N72" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>457</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>78</v>
@@ -10406,7 +10402,7 @@
         <v>78</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>79</v>
@@ -10418,19 +10414,19 @@
         <v>78</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK72" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM72" t="s" s="2">
         <v>459</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM72" t="s" s="2">
-        <v>460</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>78</v>
@@ -10438,7 +10434,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10449,31 +10445,31 @@
         <v>79</v>
       </c>
       <c r="F73" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I73" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I73" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J73" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>462</v>
       </c>
-      <c r="L73" t="s" s="2">
+      <c r="M73" t="s" s="2">
         <v>463</v>
       </c>
-      <c r="M73" t="s" s="2">
+      <c r="N73" t="s" s="2">
         <v>464</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>465</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>78</v>
@@ -10522,31 +10518,31 @@
         <v>78</v>
       </c>
       <c r="AE73" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK73" t="s" s="2">
         <v>466</v>
       </c>
-      <c r="AF73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG73" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK73" t="s" s="2">
+      <c r="AL73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM73" t="s" s="2">
         <v>467</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM73" t="s" s="2">
-        <v>468</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>78</v>
@@ -10554,7 +10550,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10565,7 +10561,7 @@
         <v>79</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>78</v>
@@ -10577,16 +10573,16 @@
         <v>78</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="L74" t="s" s="2">
         <v>470</v>
       </c>
-      <c r="L74" t="s" s="2">
-        <v>471</v>
-      </c>
       <c r="M74" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
@@ -10612,53 +10608,53 @@
         <v>78</v>
       </c>
       <c r="W74" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="X74" s="2"/>
       <c r="Y74" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK74" t="s" s="2">
         <v>472</v>
       </c>
-      <c r="Z74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE74" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="AF74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG74" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK74" t="s" s="2">
+      <c r="AL74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM74" t="s" s="2">
         <v>473</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>474</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>78</v>
@@ -10666,7 +10662,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10677,7 +10673,7 @@
         <v>79</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>78</v>
@@ -10689,13 +10685,13 @@
         <v>78</v>
       </c>
       <c r="J75" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="K75" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="K75" t="s" s="2">
+      <c r="L75" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -10746,25 +10742,25 @@
         <v>78</v>
       </c>
       <c r="AE75" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK75" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="AF75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG75" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>78</v>
@@ -10778,11 +10774,11 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
@@ -10801,16 +10797,16 @@
         <v>78</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K76" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="L76" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="L76" t="s" s="2">
-        <v>188</v>
-      </c>
       <c r="M76" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
@@ -10848,19 +10844,19 @@
         <v>78</v>
       </c>
       <c r="AA76" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD76" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="AB76" t="s" s="2">
+      <c r="AE76" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="AC76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD76" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AE76" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>79</v>
@@ -10872,13 +10868,13 @@
         <v>78</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>78</v>
@@ -10892,10 +10888,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="B77" t="s" s="2">
         <v>476</v>
-      </c>
-      <c r="B77" t="s" s="2">
-        <v>477</v>
       </c>
       <c r="C77" t="s" s="2">
         <v>78</v>
@@ -10917,13 +10913,13 @@
         <v>78</v>
       </c>
       <c r="J77" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="K77" t="s" s="2">
         <v>478</v>
       </c>
-      <c r="K77" t="s" s="2">
+      <c r="L77" t="s" s="2">
         <v>479</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>480</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -10974,7 +10970,7 @@
         <v>78</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>79</v>
@@ -10986,7 +10982,7 @@
         <v>78</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>78</v>
@@ -11006,7 +11002,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11026,22 +11022,22 @@
         <v>78</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J78" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="K78" t="s" s="2">
         <v>453</v>
       </c>
-      <c r="K78" t="s" s="2">
+      <c r="L78" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="L78" t="s" s="2">
+      <c r="M78" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="M78" t="s" s="2">
+      <c r="N78" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>457</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>78</v>
@@ -11090,7 +11086,7 @@
         <v>78</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>79</v>
@@ -11102,19 +11098,19 @@
         <v>78</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK78" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM78" t="s" s="2">
         <v>459</v>
-      </c>
-      <c r="AL78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM78" t="s" s="2">
-        <v>460</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>78</v>
@@ -11122,7 +11118,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11133,31 +11129,31 @@
         <v>79</v>
       </c>
       <c r="F79" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I79" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I79" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J79" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K79" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="L79" t="s" s="2">
         <v>462</v>
       </c>
-      <c r="L79" t="s" s="2">
+      <c r="M79" t="s" s="2">
         <v>463</v>
       </c>
-      <c r="M79" t="s" s="2">
+      <c r="N79" t="s" s="2">
         <v>464</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>465</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>78</v>
@@ -11206,31 +11202,31 @@
         <v>78</v>
       </c>
       <c r="AE79" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK79" t="s" s="2">
         <v>466</v>
       </c>
-      <c r="AF79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG79" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI79" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK79" t="s" s="2">
+      <c r="AL79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM79" t="s" s="2">
         <v>467</v>
-      </c>
-      <c r="AL79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM79" t="s" s="2">
-        <v>468</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>78</v>
@@ -11238,7 +11234,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11249,7 +11245,7 @@
         <v>79</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>78</v>
@@ -11261,19 +11257,19 @@
         <v>78</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K80" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="M80" t="s" s="2">
         <v>484</v>
       </c>
-      <c r="L80" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="M80" t="s" s="2">
+      <c r="N80" t="s" s="2">
         <v>485</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>486</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>78</v>
@@ -11298,55 +11294,55 @@
         <v>78</v>
       </c>
       <c r="W80" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="X80" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="Y80" t="s" s="2">
         <v>487</v>
       </c>
-      <c r="Y80" t="s" s="2">
+      <c r="Z80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK80" t="s" s="2">
         <v>488</v>
       </c>
-      <c r="Z80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE80" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="AF80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG80" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI80" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK80" t="s" s="2">
+      <c r="AL80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM80" t="s" s="2">
         <v>489</v>
-      </c>
-      <c r="AL80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM80" t="s" s="2">
-        <v>490</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>78</v>
@@ -11354,7 +11350,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11365,7 +11361,7 @@
         <v>79</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>78</v>
@@ -11377,13 +11373,13 @@
         <v>78</v>
       </c>
       <c r="J81" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="K81" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="K81" t="s" s="2">
+      <c r="L81" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -11434,25 +11430,25 @@
         <v>78</v>
       </c>
       <c r="AE81" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK81" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="AF81" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG81" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK81" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>78</v>
@@ -11466,11 +11462,11 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
@@ -11489,16 +11485,16 @@
         <v>78</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K82" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="L82" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="L82" t="s" s="2">
-        <v>188</v>
-      </c>
       <c r="M82" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
@@ -11536,19 +11532,19 @@
         <v>78</v>
       </c>
       <c r="AA82" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD82" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="AB82" t="s" s="2">
+      <c r="AE82" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="AC82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD82" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AE82" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>79</v>
@@ -11560,13 +11556,13 @@
         <v>78</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>78</v>
@@ -11580,10 +11576,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="B83" t="s" s="2">
         <v>492</v>
-      </c>
-      <c r="B83" t="s" s="2">
-        <v>493</v>
       </c>
       <c r="C83" t="s" s="2">
         <v>78</v>
@@ -11605,13 +11601,13 @@
         <v>78</v>
       </c>
       <c r="J83" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="K83" t="s" s="2">
         <v>494</v>
       </c>
-      <c r="K83" t="s" s="2">
+      <c r="L83" t="s" s="2">
         <v>495</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>496</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
@@ -11662,7 +11658,7 @@
         <v>78</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>79</v>
@@ -11674,7 +11670,7 @@
         <v>78</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>78</v>
@@ -11694,7 +11690,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11714,22 +11710,22 @@
         <v>78</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J84" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="K84" t="s" s="2">
         <v>453</v>
       </c>
-      <c r="K84" t="s" s="2">
+      <c r="L84" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="L84" t="s" s="2">
+      <c r="M84" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="M84" t="s" s="2">
+      <c r="N84" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>457</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>78</v>
@@ -11766,17 +11762,17 @@
         <v>78</v>
       </c>
       <c r="AA84" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AB84" s="2"/>
       <c r="AC84" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD84" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>79</v>
@@ -11788,19 +11784,19 @@
         <v>78</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK84" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM84" t="s" s="2">
         <v>459</v>
-      </c>
-      <c r="AL84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM84" t="s" s="2">
-        <v>460</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>78</v>
@@ -11808,10 +11804,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="B85" t="s" s="2">
         <v>497</v>
-      </c>
-      <c r="B85" t="s" s="2">
-        <v>498</v>
       </c>
       <c r="C85" t="s" s="2">
         <v>78</v>
@@ -11821,31 +11817,31 @@
         <v>79</v>
       </c>
       <c r="F85" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I85" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I85" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J85" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="K85" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="L85" t="s" s="2">
         <v>499</v>
       </c>
-      <c r="L85" t="s" s="2">
+      <c r="M85" t="s" s="2">
         <v>500</v>
       </c>
-      <c r="M85" t="s" s="2">
+      <c r="N85" t="s" s="2">
         <v>501</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>502</v>
       </c>
       <c r="O85" t="s" s="2">
         <v>78</v>
@@ -11870,11 +11866,11 @@
         <v>78</v>
       </c>
       <c r="W85" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="X85" s="2"/>
       <c r="Y85" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="Z85" t="s" s="2">
         <v>78</v>
@@ -11892,7 +11888,7 @@
         <v>78</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>79</v>
@@ -11904,19 +11900,19 @@
         <v>78</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK85" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM85" t="s" s="2">
         <v>459</v>
-      </c>
-      <c r="AL85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM85" t="s" s="2">
-        <v>460</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>78</v>
@@ -11924,7 +11920,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11935,7 +11931,7 @@
         <v>79</v>
       </c>
       <c r="F86" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G86" t="s" s="2">
         <v>78</v>
@@ -11947,13 +11943,13 @@
         <v>78</v>
       </c>
       <c r="J86" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="K86" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="K86" t="s" s="2">
+      <c r="L86" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="L86" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -12004,25 +12000,25 @@
         <v>78</v>
       </c>
       <c r="AE86" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="AF86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK86" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="AF86" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG86" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK86" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>78</v>
@@ -12036,11 +12032,11 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
@@ -12059,16 +12055,16 @@
         <v>78</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K87" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="L87" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="L87" t="s" s="2">
-        <v>188</v>
-      </c>
       <c r="M87" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
@@ -12106,19 +12102,19 @@
         <v>78</v>
       </c>
       <c r="AA87" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD87" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="AB87" t="s" s="2">
+      <c r="AE87" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="AC87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD87" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AE87" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>79</v>
@@ -12130,13 +12126,13 @@
         <v>78</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>78</v>
@@ -12150,7 +12146,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12158,107 +12154,107 @@
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F88" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I88" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="F88" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I88" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J88" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K88" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="L88" t="s" s="2">
         <v>507</v>
       </c>
-      <c r="L88" t="s" s="2">
+      <c r="M88" t="s" s="2">
         <v>508</v>
       </c>
-      <c r="M88" t="s" s="2">
+      <c r="N88" t="s" s="2">
         <v>509</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>510</v>
       </c>
       <c r="O88" t="s" s="2">
         <v>78</v>
       </c>
       <c r="P88" s="2"/>
       <c r="Q88" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="R88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE88" t="s" s="2">
         <v>511</v>
       </c>
-      <c r="R88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE88" t="s" s="2">
+      <c r="AF88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK88" t="s" s="2">
         <v>512</v>
       </c>
-      <c r="AF88" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG88" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI88" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK88" t="s" s="2">
+      <c r="AL88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM88" t="s" s="2">
         <v>513</v>
-      </c>
-      <c r="AL88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM88" t="s" s="2">
-        <v>514</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>78</v>
@@ -12266,7 +12262,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12277,28 +12273,28 @@
         <v>79</v>
       </c>
       <c r="F89" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I89" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I89" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J89" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K89" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="L89" t="s" s="2">
         <v>516</v>
       </c>
-      <c r="L89" t="s" s="2">
+      <c r="M89" t="s" s="2">
         <v>517</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>518</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
@@ -12348,31 +12344,31 @@
         <v>78</v>
       </c>
       <c r="AE89" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK89" t="s" s="2">
         <v>519</v>
       </c>
-      <c r="AF89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG89" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI89" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK89" t="s" s="2">
+      <c r="AL89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM89" t="s" s="2">
         <v>520</v>
-      </c>
-      <c r="AL89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM89" t="s" s="2">
-        <v>521</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>78</v>
@@ -12380,7 +12376,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12391,29 +12387,29 @@
         <v>79</v>
       </c>
       <c r="F90" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I90" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I90" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J90" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K90" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="L90" t="s" s="2">
         <v>523</v>
-      </c>
-      <c r="L90" t="s" s="2">
-        <v>524</v>
       </c>
       <c r="M90" s="2"/>
       <c r="N90" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="O90" t="s" s="2">
         <v>78</v>
@@ -12462,31 +12458,31 @@
         <v>78</v>
       </c>
       <c r="AE90" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK90" t="s" s="2">
         <v>526</v>
       </c>
-      <c r="AF90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG90" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI90" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK90" t="s" s="2">
+      <c r="AL90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM90" t="s" s="2">
         <v>527</v>
-      </c>
-      <c r="AL90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM90" t="s" s="2">
-        <v>528</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>78</v>
@@ -12494,7 +12490,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12505,29 +12501,29 @@
         <v>79</v>
       </c>
       <c r="F91" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I91" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I91" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J91" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K91" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="L91" t="s" s="2">
         <v>530</v>
-      </c>
-      <c r="L91" t="s" s="2">
-        <v>531</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" t="s" s="2">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="O91" t="s" s="2">
         <v>78</v>
@@ -12576,31 +12572,31 @@
         <v>78</v>
       </c>
       <c r="AE91" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK91" t="s" s="2">
         <v>533</v>
       </c>
-      <c r="AF91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG91" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI91" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK91" t="s" s="2">
+      <c r="AL91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM91" t="s" s="2">
         <v>534</v>
-      </c>
-      <c r="AL91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM91" t="s" s="2">
-        <v>535</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>78</v>
@@ -12608,7 +12604,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12619,31 +12615,31 @@
         <v>79</v>
       </c>
       <c r="F92" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I92" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I92" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J92" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="K92" t="s" s="2">
         <v>537</v>
       </c>
-      <c r="K92" t="s" s="2">
+      <c r="L92" t="s" s="2">
         <v>538</v>
       </c>
-      <c r="L92" t="s" s="2">
+      <c r="M92" t="s" s="2">
         <v>539</v>
       </c>
-      <c r="M92" t="s" s="2">
+      <c r="N92" t="s" s="2">
         <v>540</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>541</v>
       </c>
       <c r="O92" t="s" s="2">
         <v>78</v>
@@ -12692,31 +12688,31 @@
         <v>78</v>
       </c>
       <c r="AE92" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="AF92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK92" t="s" s="2">
         <v>542</v>
       </c>
-      <c r="AF92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG92" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI92" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK92" t="s" s="2">
+      <c r="AL92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM92" t="s" s="2">
         <v>543</v>
-      </c>
-      <c r="AL92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM92" t="s" s="2">
-        <v>544</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>78</v>
@@ -12724,10 +12720,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C93" t="s" s="2">
         <v>78</v>
@@ -12737,31 +12733,31 @@
         <v>79</v>
       </c>
       <c r="F93" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I93" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I93" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J93" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="K93" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="L93" t="s" s="2">
         <v>546</v>
       </c>
-      <c r="L93" t="s" s="2">
-        <v>547</v>
-      </c>
       <c r="M93" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="N93" t="s" s="2">
         <v>501</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>502</v>
       </c>
       <c r="O93" t="s" s="2">
         <v>78</v>
@@ -12786,11 +12782,11 @@
         <v>78</v>
       </c>
       <c r="W93" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="X93" s="2"/>
       <c r="Y93" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="Z93" t="s" s="2">
         <v>78</v>
@@ -12808,7 +12804,7 @@
         <v>78</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>79</v>
@@ -12820,19 +12816,19 @@
         <v>78</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK93" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AL93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM93" t="s" s="2">
         <v>459</v>
-      </c>
-      <c r="AL93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM93" t="s" s="2">
-        <v>460</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>78</v>
@@ -12840,7 +12836,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -12851,7 +12847,7 @@
         <v>79</v>
       </c>
       <c r="F94" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G94" t="s" s="2">
         <v>78</v>
@@ -12863,13 +12859,13 @@
         <v>78</v>
       </c>
       <c r="J94" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="K94" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="K94" t="s" s="2">
+      <c r="L94" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="L94" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="M94" s="2"/>
       <c r="N94" s="2"/>
@@ -12920,25 +12916,25 @@
         <v>78</v>
       </c>
       <c r="AE94" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="AF94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG94" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK94" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="AF94" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG94" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH94" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI94" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ94" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK94" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>78</v>
@@ -12952,11 +12948,11 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s" s="2">
@@ -12975,16 +12971,16 @@
         <v>78</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K95" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="L95" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="L95" t="s" s="2">
-        <v>188</v>
-      </c>
       <c r="M95" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
@@ -13022,19 +13018,19 @@
         <v>78</v>
       </c>
       <c r="AA95" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AB95" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AC95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD95" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="AB95" t="s" s="2">
+      <c r="AE95" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="AC95" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD95" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AE95" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>79</v>
@@ -13046,13 +13042,13 @@
         <v>78</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ95" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AL95" t="s" s="2">
         <v>78</v>
@@ -13066,7 +13062,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -13074,41 +13070,41 @@
       </c>
       <c r="D96" s="2"/>
       <c r="E96" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F96" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I96" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="F96" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G96" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H96" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I96" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J96" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K96" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="L96" t="s" s="2">
         <v>507</v>
       </c>
-      <c r="L96" t="s" s="2">
+      <c r="M96" t="s" s="2">
         <v>508</v>
       </c>
-      <c r="M96" t="s" s="2">
+      <c r="N96" t="s" s="2">
         <v>509</v>
-      </c>
-      <c r="N96" t="s" s="2">
-        <v>510</v>
       </c>
       <c r="O96" t="s" s="2">
         <v>78</v>
       </c>
       <c r="P96" s="2"/>
       <c r="Q96" t="s" s="2">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="R96" t="s" s="2">
         <v>78</v>
@@ -13150,31 +13146,31 @@
         <v>78</v>
       </c>
       <c r="AE96" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="AF96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG96" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI96" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK96" t="s" s="2">
         <v>512</v>
       </c>
-      <c r="AF96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG96" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH96" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI96" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ96" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK96" t="s" s="2">
+      <c r="AL96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM96" t="s" s="2">
         <v>513</v>
-      </c>
-      <c r="AL96" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM96" t="s" s="2">
-        <v>514</v>
       </c>
       <c r="AN96" t="s" s="2">
         <v>78</v>
@@ -13182,7 +13178,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -13193,28 +13189,28 @@
         <v>79</v>
       </c>
       <c r="F97" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I97" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I97" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J97" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K97" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="L97" t="s" s="2">
         <v>516</v>
       </c>
-      <c r="L97" t="s" s="2">
+      <c r="M97" t="s" s="2">
         <v>517</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>518</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" t="s" s="2">
@@ -13264,31 +13260,31 @@
         <v>78</v>
       </c>
       <c r="AE97" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="AF97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG97" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI97" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK97" t="s" s="2">
         <v>519</v>
       </c>
-      <c r="AF97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG97" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI97" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK97" t="s" s="2">
+      <c r="AL97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM97" t="s" s="2">
         <v>520</v>
-      </c>
-      <c r="AL97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM97" t="s" s="2">
-        <v>521</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>78</v>
@@ -13296,7 +13292,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -13307,29 +13303,29 @@
         <v>79</v>
       </c>
       <c r="F98" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I98" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G98" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H98" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I98" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J98" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K98" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="L98" t="s" s="2">
         <v>523</v>
-      </c>
-      <c r="L98" t="s" s="2">
-        <v>524</v>
       </c>
       <c r="M98" s="2"/>
       <c r="N98" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="O98" t="s" s="2">
         <v>78</v>
@@ -13378,31 +13374,31 @@
         <v>78</v>
       </c>
       <c r="AE98" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="AF98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG98" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI98" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK98" t="s" s="2">
         <v>526</v>
       </c>
-      <c r="AF98" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG98" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH98" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI98" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ98" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK98" t="s" s="2">
+      <c r="AL98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM98" t="s" s="2">
         <v>527</v>
-      </c>
-      <c r="AL98" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM98" t="s" s="2">
-        <v>528</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>78</v>
@@ -13410,7 +13406,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -13421,29 +13417,29 @@
         <v>79</v>
       </c>
       <c r="F99" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I99" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G99" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H99" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I99" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J99" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K99" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="L99" t="s" s="2">
         <v>530</v>
-      </c>
-      <c r="L99" t="s" s="2">
-        <v>531</v>
       </c>
       <c r="M99" s="2"/>
       <c r="N99" t="s" s="2">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="O99" t="s" s="2">
         <v>78</v>
@@ -13492,31 +13488,31 @@
         <v>78</v>
       </c>
       <c r="AE99" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="AF99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG99" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI99" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK99" t="s" s="2">
         <v>533</v>
       </c>
-      <c r="AF99" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG99" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH99" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI99" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ99" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK99" t="s" s="2">
+      <c r="AL99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM99" t="s" s="2">
         <v>534</v>
-      </c>
-      <c r="AL99" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM99" t="s" s="2">
-        <v>535</v>
       </c>
       <c r="AN99" t="s" s="2">
         <v>78</v>
@@ -13524,7 +13520,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -13535,31 +13531,31 @@
         <v>79</v>
       </c>
       <c r="F100" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I100" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G100" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H100" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I100" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J100" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="K100" t="s" s="2">
         <v>537</v>
       </c>
-      <c r="K100" t="s" s="2">
+      <c r="L100" t="s" s="2">
         <v>538</v>
       </c>
-      <c r="L100" t="s" s="2">
+      <c r="M100" t="s" s="2">
         <v>539</v>
       </c>
-      <c r="M100" t="s" s="2">
+      <c r="N100" t="s" s="2">
         <v>540</v>
-      </c>
-      <c r="N100" t="s" s="2">
-        <v>541</v>
       </c>
       <c r="O100" t="s" s="2">
         <v>78</v>
@@ -13608,31 +13604,31 @@
         <v>78</v>
       </c>
       <c r="AE100" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="AF100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG100" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI100" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK100" t="s" s="2">
         <v>542</v>
       </c>
-      <c r="AF100" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG100" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH100" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI100" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ100" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK100" t="s" s="2">
+      <c r="AL100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM100" t="s" s="2">
         <v>543</v>
-      </c>
-      <c r="AL100" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM100" t="s" s="2">
-        <v>544</v>
       </c>
       <c r="AN100" t="s" s="2">
         <v>78</v>
@@ -13640,7 +13636,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -13651,31 +13647,31 @@
         <v>79</v>
       </c>
       <c r="F101" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I101" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I101" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J101" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K101" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="L101" t="s" s="2">
         <v>551</v>
       </c>
-      <c r="L101" t="s" s="2">
+      <c r="M101" t="s" s="2">
         <v>552</v>
       </c>
-      <c r="M101" t="s" s="2">
+      <c r="N101" t="s" s="2">
         <v>553</v>
-      </c>
-      <c r="N101" t="s" s="2">
-        <v>554</v>
       </c>
       <c r="O101" t="s" s="2">
         <v>78</v>
@@ -13724,31 +13720,31 @@
         <v>78</v>
       </c>
       <c r="AE101" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="AF101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG101" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI101" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK101" t="s" s="2">
         <v>466</v>
       </c>
-      <c r="AF101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG101" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI101" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK101" t="s" s="2">
+      <c r="AL101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM101" t="s" s="2">
         <v>467</v>
-      </c>
-      <c r="AL101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM101" t="s" s="2">
-        <v>468</v>
       </c>
       <c r="AN101" t="s" s="2">
         <v>78</v>
@@ -13756,7 +13752,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -13767,7 +13763,7 @@
         <v>79</v>
       </c>
       <c r="F102" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G102" t="s" s="2">
         <v>78</v>
@@ -13779,16 +13775,16 @@
         <v>78</v>
       </c>
       <c r="J102" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="K102" t="s" s="2">
         <v>556</v>
       </c>
-      <c r="K102" t="s" s="2">
+      <c r="L102" t="s" s="2">
         <v>557</v>
       </c>
-      <c r="L102" t="s" s="2">
+      <c r="M102" t="s" s="2">
         <v>558</v>
-      </c>
-      <c r="M102" t="s" s="2">
-        <v>559</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" t="s" s="2">
@@ -13838,31 +13834,31 @@
         <v>78</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG102" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH102" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AI102" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="AJ102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK102" t="s" s="2">
         <v>560</v>
       </c>
-      <c r="AJ102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK102" t="s" s="2">
+      <c r="AL102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM102" t="s" s="2">
         <v>561</v>
-      </c>
-      <c r="AL102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM102" t="s" s="2">
-        <v>562</v>
       </c>
       <c r="AN102" t="s" s="2">
         <v>78</v>
@@ -13870,7 +13866,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -13881,7 +13877,7 @@
         <v>79</v>
       </c>
       <c r="F103" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G103" t="s" s="2">
         <v>78</v>
@@ -13893,16 +13889,16 @@
         <v>78</v>
       </c>
       <c r="J103" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="K103" t="s" s="2">
         <v>564</v>
       </c>
-      <c r="K103" t="s" s="2">
+      <c r="L103" t="s" s="2">
         <v>565</v>
       </c>
-      <c r="L103" t="s" s="2">
+      <c r="M103" t="s" s="2">
         <v>566</v>
-      </c>
-      <c r="M103" t="s" s="2">
-        <v>567</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" t="s" s="2">
@@ -13940,41 +13936,41 @@
         <v>78</v>
       </c>
       <c r="AA103" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AB103" s="2"/>
       <c r="AC103" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD103" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG103" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH103" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ103" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK103" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="AL103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM103" t="s" s="2">
         <v>568</v>
-      </c>
-      <c r="AL103" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM103" t="s" s="2">
-        <v>569</v>
       </c>
       <c r="AN103" t="s" s="2">
         <v>78</v>
@@ -13982,10 +13978,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C104" t="s" s="2">
         <v>78</v>
@@ -13995,7 +13991,7 @@
         <v>79</v>
       </c>
       <c r="F104" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G104" t="s" s="2">
         <v>78</v>
@@ -14007,16 +14003,16 @@
         <v>78</v>
       </c>
       <c r="J104" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="K104" t="s" s="2">
         <v>571</v>
       </c>
-      <c r="K104" t="s" s="2">
+      <c r="L104" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="M104" t="s" s="2">
         <v>572</v>
-      </c>
-      <c r="L104" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="M104" t="s" s="2">
-        <v>573</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" t="s" s="2">
@@ -14066,31 +14062,31 @@
         <v>78</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG104" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH104" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AI104" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="AJ104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK104" t="s" s="2">
         <v>574</v>
       </c>
-      <c r="AJ104" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK104" t="s" s="2">
-        <v>575</v>
-      </c>
       <c r="AL104" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AN104" t="s" s="2">
         <v>78</v>
@@ -14098,10 +14094,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C105" t="s" s="2">
         <v>78</v>
@@ -14111,7 +14107,7 @@
         <v>79</v>
       </c>
       <c r="F105" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G105" t="s" s="2">
         <v>78</v>
@@ -14123,16 +14119,16 @@
         <v>78</v>
       </c>
       <c r="J105" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="K105" t="s" s="2">
         <v>577</v>
       </c>
-      <c r="K105" t="s" s="2">
+      <c r="L105" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="M105" t="s" s="2">
         <v>578</v>
-      </c>
-      <c r="L105" t="s" s="2">
-        <v>578</v>
-      </c>
-      <c r="M105" t="s" s="2">
-        <v>579</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" t="s" s="2">
@@ -14182,31 +14178,31 @@
         <v>78</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG105" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH105" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AI105" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="AJ105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK105" t="s" s="2">
         <v>560</v>
       </c>
-      <c r="AJ105" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK105" t="s" s="2">
+      <c r="AL105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM105" t="s" s="2">
         <v>561</v>
-      </c>
-      <c r="AL105" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM105" t="s" s="2">
-        <v>562</v>
       </c>
       <c r="AN105" t="s" s="2">
         <v>78</v>
@@ -14214,7 +14210,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -14237,16 +14233,16 @@
         <v>78</v>
       </c>
       <c r="J106" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="K106" t="s" s="2">
         <v>581</v>
       </c>
-      <c r="K106" t="s" s="2">
+      <c r="L106" t="s" s="2">
         <v>582</v>
       </c>
-      <c r="L106" t="s" s="2">
+      <c r="M106" t="s" s="2">
         <v>583</v>
-      </c>
-      <c r="M106" t="s" s="2">
-        <v>584</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" t="s" s="2">
@@ -14296,7 +14292,7 @@
         <v>78</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>79</v>
@@ -14308,13 +14304,13 @@
         <v>78</v>
       </c>
       <c r="AI106" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ106" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="AL106" t="s" s="2">
         <v>78</v>
